--- a/AutomaticProjectTesting_Aug2015_VS2015/EmptyGeneralTesting/Release/Test1/QuerySet1.xlsx
+++ b/AutomaticProjectTesting_Aug2015_VS2015/EmptyGeneralTesting/Release/Test1/QuerySet1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="154">
   <si>
     <t>Index</t>
   </si>
@@ -85,99 +85,51 @@
     <t>All varables</t>
   </si>
   <si>
-    <t>Select SingleSynonym Follows IntInt HaveResult</t>
-  </si>
-  <si>
     <t>Select s such that Follows(1, _)</t>
   </si>
   <si>
-    <t>Select SingleSynonym Follows IntUnderscore HaveResult</t>
-  </si>
-  <si>
     <t>Select s such that Follows(1, s)</t>
   </si>
   <si>
-    <t>Select SingleSynonym Follows IntSynonym HaveResult</t>
-  </si>
-  <si>
-    <t>Select SingleSynonym Follows IntInt NoResult</t>
-  </si>
-  <si>
     <t>Select s such that Follows(3, s)</t>
   </si>
   <si>
-    <t>Select SingleSynonym Follows IntSynonym BehindWhile HaveResult</t>
-  </si>
-  <si>
     <t>Select s such that Follows(_, 3)</t>
   </si>
   <si>
-    <t>Select SingleSynonym Follows UnderscoreInt HaveResult</t>
-  </si>
-  <si>
     <t>Select s such that Follows(_, 1)</t>
   </si>
   <si>
-    <t>Select SingleSynonym Follows UnderscoreInt NoResult</t>
-  </si>
-  <si>
     <t>Select s such that Follows(_, _)</t>
   </si>
   <si>
-    <t>Select SingleSynonym Follows UnderscoreUnderscore HaveResult</t>
-  </si>
-  <si>
     <t>Select s such that Follows(_, s)</t>
   </si>
   <si>
-    <t>Select SingleSynonym Follows UnderscoreSynonym HaveResult</t>
-  </si>
-  <si>
     <t>Select s such that Follows(s, 2)</t>
   </si>
   <si>
-    <t>Select SingleSynonym Follows SynonymInt HaveResult</t>
-  </si>
-  <si>
-    <t>Select SingleSynonym Follows SynonymInt NoResult</t>
-  </si>
-  <si>
     <t>Select s such that Follows(s, 1)</t>
   </si>
   <si>
     <t>Select s such that Follows(s, 8)</t>
   </si>
   <si>
-    <t>Select SingleSynonym Follows SynonymInt BeforeWhile HaveResult</t>
-  </si>
-  <si>
     <t>Select s such that Follows(s, _)</t>
   </si>
   <si>
-    <t>Select SingleSynonym Follows SynonymUnderscore HaveResult</t>
-  </si>
-  <si>
     <t>stmt s1, s2;</t>
   </si>
   <si>
     <t>Select s1 such that Follows(s1, s2)</t>
   </si>
   <si>
-    <t>Select SingleSynonym Follows SynonymSynonym GetFront HaveResult</t>
-  </si>
-  <si>
-    <t>Select SingleSynonym Follows SynonymSynonym GetBack HaveResult</t>
-  </si>
-  <si>
     <t>Select s2 such that Follows(s1, s2)</t>
   </si>
   <si>
     <t>Select s such that Follows(s, s)</t>
   </si>
   <si>
-    <t>Select SingleSynonym Follows SynonymUnderscore NoResult</t>
-  </si>
-  <si>
     <t>stmts;</t>
   </si>
   <si>
@@ -194,13 +146,352 @@
   </si>
   <si>
     <t>1,2,3,4,5,6</t>
+  </si>
+  <si>
+    <t>Select v such that Follows(1, 2)</t>
+  </si>
+  <si>
+    <t>Select v such that Follows(3, 4)</t>
+  </si>
+  <si>
+    <t>Select v such that Follows(1, _)</t>
+  </si>
+  <si>
+    <t>Select v such that Follows(1, s)</t>
+  </si>
+  <si>
+    <t>Select v such that Follows(3, s)</t>
+  </si>
+  <si>
+    <t>Select v such that Follows(_, 3)</t>
+  </si>
+  <si>
+    <t>Select v such that Follows(_, 1)</t>
+  </si>
+  <si>
+    <t>Select v such that Follows(_, _)</t>
+  </si>
+  <si>
+    <t>Select v such that Follows(_, s)</t>
+  </si>
+  <si>
+    <t>Select v such that Follows(s, 2)</t>
+  </si>
+  <si>
+    <t>Select v such that Follows(s, 1)</t>
+  </si>
+  <si>
+    <t>Select v such that Follows(s, 8)</t>
+  </si>
+  <si>
+    <t>Select v such that Follows(s, _)</t>
+  </si>
+  <si>
+    <t>Select v such that Follows(v, s)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Variable Follows IntInt HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Variable Follows IntInt NoResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Variable Follows IntUnderscore HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Variable Follows IntSynonym HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Variable Follows IntSynonym BehindWhile HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Variable Follows UnderscoreInt HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Variable Follows UnderscoreInt NoResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Variable Follows UnderscoreUnderscore HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Variable Follows UnderscoreSynonym HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Variable Follows SynonymInt HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Variable Follows SynonymInt NoResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Variable Follows SynonymInt BeforeWhile HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Variable Follows SynonymUnderscore HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Variable Follows Illegal Argument NoResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Follows IntInt HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Follows IntInt NoResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Follows IntUnderscore HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Follows IntSynonym HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Follows IntSynonym BehindWhile HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Follows UnderscoreInt HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Follows UnderscoreInt NoResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Follows UnderscoreUnderscore HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Follows UnderscoreSynonym HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Follows SynonymInt HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Follows SynonymInt NoResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Follows SynonymInt BeforeWhile HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Follows SynonymUnderscore HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Follows SynonymSynonym GetFront HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Follows SynonymSynonym GetBack HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Follows SynonymUnderscore NoResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Assign Follows IntInt HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Assign Follows IntInt NoResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Assign Follows IntUnderscore HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Assign Follows IntSynonym HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Assign Follows IntSynonym BehindWhile HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Assign Follows UnderscoreInt HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Assign Follows UnderscoreInt NoResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Assign Follows UnderscoreUnderscore HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Assign Follows UnderscoreSynonym HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Assign Follows SynonymInt HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Assign Follows SynonymInt NoResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Assign Follows SynonymUnderscore HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Assign Follows SynonymSynonym GetFront HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Assign Follows SynonymSynonym GetBack HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Assign Follows SynonymUnderscore NoResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym While Follows IntInt HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym While Follows IntInt NoResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym While Follows IntUnderscore HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym While Follows IntSynonym HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym While Follows UnderscoreInt HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym While Follows UnderscoreInt NoResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym While Follows UnderscoreUnderscore HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym While Follows UnderscoreSynonym HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym While Follows SynonymInt HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym While Follows SynonymInt NoResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym While Follows SynonymUnderscore HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym While Follows SynonymUnderscore NoResult</t>
+  </si>
+  <si>
+    <t>assign a1, a2;</t>
+  </si>
+  <si>
+    <t>while w1, w2;</t>
+  </si>
+  <si>
+    <t>Select w such that Follows(1, 2)</t>
+  </si>
+  <si>
+    <t>Select w such that Follows(3, 4)</t>
+  </si>
+  <si>
+    <t>Select w such that Follows(1, _)</t>
+  </si>
+  <si>
+    <t>Select w such that Follows(3, w)</t>
+  </si>
+  <si>
+    <t>Select w such that Follows(_, 3)</t>
+  </si>
+  <si>
+    <t>Select w such that Follows(_, 1)</t>
+  </si>
+  <si>
+    <t>Select w such that Follows(_, _)</t>
+  </si>
+  <si>
+    <t>Select w such that Follows(_, w)</t>
+  </si>
+  <si>
+    <t>Select w such that Follows(w, 1)</t>
+  </si>
+  <si>
+    <t>Select w such that Follows(w, 8)</t>
+  </si>
+  <si>
+    <t>Select w such that Follows(w, _)</t>
+  </si>
+  <si>
+    <t>Select w1 such that Follows(w1, w2)</t>
+  </si>
+  <si>
+    <t>Select w2 such that Follows(w1, w2)</t>
+  </si>
+  <si>
+    <t>Select w such that Follows(w, w)</t>
+  </si>
+  <si>
+    <t>Select a such that Follows(1, 2)</t>
+  </si>
+  <si>
+    <t>Select a such that Follows(3, 4)</t>
+  </si>
+  <si>
+    <t>Select a such that Follows(1, _)</t>
+  </si>
+  <si>
+    <t>Select a such that Follows(1, a)</t>
+  </si>
+  <si>
+    <t>Select a such that Follows(3, a)</t>
+  </si>
+  <si>
+    <t>Select a such that Follows(_, 3)</t>
+  </si>
+  <si>
+    <t>Select a such that Follows(_, 1)</t>
+  </si>
+  <si>
+    <t>Select a such that Follows(_, _)</t>
+  </si>
+  <si>
+    <t>Select a such that Follows(_, a)</t>
+  </si>
+  <si>
+    <t>Select a such that Follows(a, 2)</t>
+  </si>
+  <si>
+    <t>Select a such that Follows(a, 1)</t>
+  </si>
+  <si>
+    <t>Select a such that Follows(a, 8)</t>
+  </si>
+  <si>
+    <t>Select a such that Follows(a, _)</t>
+  </si>
+  <si>
+    <t>Select a1 such that Follows(a1, a2)</t>
+  </si>
+  <si>
+    <t>Select a2 such that Follows(a1, a2)</t>
+  </si>
+  <si>
+    <t>Select a such that Follows(a, a)</t>
+  </si>
+  <si>
+    <t>variable v; stmt s;</t>
+  </si>
+  <si>
+    <t>2,5,6,7,8</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Assign Follows SynonymInt BeforeIntNotAssign NoResult</t>
+  </si>
+  <si>
+    <t>1,2,4,5,6</t>
+  </si>
+  <si>
+    <t>1,4,5,6</t>
+  </si>
+  <si>
+    <t>2,5,6,7</t>
+  </si>
+  <si>
+    <t>Select w such that Follows(2, w)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym While Follows IntSynonym WhileFollowItself NoResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym While Follows SynonymSynonym GetFront NoResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym While Follows SynonymSynonym GetBack NoResult</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,6 +514,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -257,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -271,18 +570,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -601,16 +904,16 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -641,7 +944,7 @@
       <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="8">
         <v>3</v>
       </c>
       <c r="E4" t="s">
@@ -672,309 +975,1074 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.85546875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="52.140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="6" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.85546875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="52.140625" style="10" customWidth="1"/>
     <col min="4" max="4" width="35.42578125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="66" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="6"/>
+    <col min="5" max="5" width="66" style="10" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="13" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>52</v>
+      <c r="C2" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="D4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>23</v>
       </c>
       <c r="D5" s="11">
         <v>2</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>24</v>
+      <c r="E5" s="10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>26</v>
+      <c r="C6" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="D6" s="11">
         <v>8</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>27</v>
+      <c r="E6" s="10" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>28</v>
+      <c r="C7" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>29</v>
+      <c r="E7" s="10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>31</v>
+      <c r="C8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>32</v>
+      <c r="C9" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>33</v>
+      <c r="E9" s="10" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>35</v>
+      <c r="C10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>36</v>
+      <c r="C11" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="D11" s="11">
         <v>1</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>37</v>
+      <c r="E11" s="10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="9" t="s">
+      <c r="C12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>38</v>
       </c>
+      <c r="E12" s="10" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>40</v>
+      <c r="C13" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="D13" s="11">
         <v>3</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="9" t="s">
+      <c r="D18" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D19" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="9" t="s">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="D20" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>23</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>25</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>26</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>27</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>28</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>29</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>30</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>31</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="E32" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>32</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <v>33</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <v>34</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" s="11">
+        <v>2</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <v>35</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D36" s="11">
+        <v>8</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
+        <v>36</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
+        <v>37</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <v>38</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
+        <v>39</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
+        <v>40</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D41" s="11">
+        <v>1</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
+        <v>41</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="9">
+        <v>42</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
+        <v>43</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
         <v>44</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="B45" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="9">
         <v>45</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="B46" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
+        <v>46</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="9">
+        <v>47</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D48" s="11">
+        <v>3</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
+        <v>48</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="9">
+        <v>49</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D50" s="11">
+        <v>3</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="9">
+        <v>50</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D51" s="11">
+        <v>3</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="9">
+        <v>51</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="9">
+        <v>52</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D53" s="11">
+        <v>3</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="9">
+        <v>53</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="9">
+        <v>54</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D55" s="11">
+        <v>3</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="9">
+        <v>55</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D56" s="11">
+        <v>3</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="9">
         <v>56</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>15</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>16</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>50</v>
+      <c r="B57" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D57" s="11">
+        <v>3</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="9">
+        <v>57</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="9">
+        <v>59</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D59" s="11">
+        <v>3</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="9">
+        <v>60</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="9">
+        <v>61</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="9">
+        <v>62</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1082,28 +2150,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
     </row>

--- a/AutomaticProjectTesting_Aug2015_VS2015/EmptyGeneralTesting/Release/Test1/QuerySet1.xlsx
+++ b/AutomaticProjectTesting_Aug2015_VS2015/EmptyGeneralTesting/Release/Test1/QuerySet1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Complex" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="156">
   <si>
     <t>Index</t>
   </si>
@@ -485,13 +485,19 @@
   </si>
   <si>
     <t>Select SingleSynonym While Follows SynonymSynonym GetBack NoResult</t>
+  </si>
+  <si>
+    <t>aaaa</t>
+  </si>
+  <si>
+    <t>hello test test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -535,6 +541,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -556,7 +569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -570,10 +583,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -586,6 +595,13 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -868,104 +884,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3B02F3-8668-4835-B18A-9EFEA275CE21}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
-    <col min="3" max="3" width="37.140625" customWidth="1"/>
-    <col min="4" max="4" width="39.7109375" customWidth="1"/>
-    <col min="5" max="5" width="35.85546875" customWidth="1"/>
+    <col min="1" max="1" width="6" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="39.7109375" style="14" customWidth="1"/>
+    <col min="5" max="5" width="35.85546875" style="14" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="15">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="14" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="14" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -977,1071 +1002,1071 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.85546875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="52.140625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="35.42578125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="66" style="10" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="6" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="52.140625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="35.42578125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="66" style="8" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="9">
         <v>2</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="8" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="9">
         <v>8</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="8" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="8" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="8" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="9">
         <v>1</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="8" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="9">
         <v>3</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="8" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="8" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="8" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="8" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+      <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+      <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="8" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
+      <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="8" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
+      <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="8" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
+      <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="8" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+      <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="8" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
+      <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="8" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
+      <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
+      <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="8" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
+      <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="8" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="9">
+      <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="8" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="9">
+      <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="8" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
+      <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="9">
         <v>2</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E35" s="8" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="9">
+      <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="9">
         <v>8</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E36" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
+      <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="8" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="9">
+      <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E38" s="8" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="9">
+      <c r="A39" s="7">
         <v>38</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="E39" s="8" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="9">
+      <c r="A40" s="7">
         <v>39</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E40" s="8" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="9">
+      <c r="A41" s="7">
         <v>40</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D41" s="9">
         <v>1</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="E41" s="8" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="9">
+      <c r="A42" s="7">
         <v>41</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="E42" s="8" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="9">
+      <c r="A43" s="7">
         <v>42</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="E43" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="9">
+      <c r="A44" s="7">
         <v>43</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="E44" s="8" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="9">
+      <c r="A45" s="7">
         <v>44</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="E45" s="8" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="9">
+      <c r="A46" s="7">
         <v>45</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="E46" s="8" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="9">
+      <c r="A47" s="7">
         <v>46</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E47" s="10" t="s">
+      <c r="E47" s="8" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="9">
+      <c r="A48" s="7">
         <v>47</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D48" s="9">
         <v>3</v>
       </c>
-      <c r="E48" s="10" t="s">
+      <c r="E48" s="8" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="9">
+      <c r="A49" s="7">
         <v>48</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="D49" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E49" s="10" t="s">
+      <c r="E49" s="8" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="9">
+      <c r="A50" s="7">
         <v>49</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D50" s="9">
         <v>3</v>
       </c>
-      <c r="E50" s="10" t="s">
+      <c r="E50" s="8" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="9">
+      <c r="A51" s="7">
         <v>50</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D51" s="9">
         <v>3</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="E51" s="8" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="9">
+      <c r="A52" s="7">
         <v>51</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="D52" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E52" s="10" t="s">
+      <c r="E52" s="8" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="9">
+      <c r="A53" s="7">
         <v>52</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D53" s="11">
+      <c r="D53" s="9">
         <v>3</v>
       </c>
-      <c r="E53" s="10" t="s">
+      <c r="E53" s="8" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="9">
+      <c r="A54" s="7">
         <v>53</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D54" s="11" t="s">
+      <c r="D54" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E54" s="10" t="s">
+      <c r="E54" s="8" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="9">
+      <c r="A55" s="7">
         <v>54</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D55" s="9">
         <v>3</v>
       </c>
-      <c r="E55" s="10" t="s">
+      <c r="E55" s="8" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="9">
+      <c r="A56" s="7">
         <v>55</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D56" s="9">
         <v>3</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="E56" s="8" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="9">
+      <c r="A57" s="7">
         <v>56</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D57" s="9">
         <v>3</v>
       </c>
-      <c r="E57" s="10" t="s">
+      <c r="E57" s="8" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="9">
+      <c r="A58" s="7">
         <v>57</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="D58" s="11" t="s">
+      <c r="D58" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E58" s="10" t="s">
+      <c r="E58" s="8" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="9">
+      <c r="A59" s="7">
         <v>59</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C59" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="D59" s="11">
+      <c r="D59" s="9">
         <v>3</v>
       </c>
-      <c r="E59" s="10" t="s">
+      <c r="E59" s="8" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="9">
+      <c r="A60" s="7">
         <v>60</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C60" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="D60" s="11" t="s">
+      <c r="D60" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E60" s="10" t="s">
+      <c r="E60" s="8" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="9">
+      <c r="A61" s="7">
         <v>61</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C61" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D61" s="11" t="s">
+      <c r="D61" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E61" s="10" t="s">
+      <c r="E61" s="8" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="9">
+      <c r="A62" s="7">
         <v>62</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D62" s="11" t="s">
+      <c r="D62" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E62" s="10" t="s">
+      <c r="E62" s="8" t="s">
         <v>111</v>
       </c>
     </row>

--- a/AutomaticProjectTesting_Aug2015_VS2015/EmptyGeneralTesting/Release/Test1/QuerySet1.xlsx
+++ b/AutomaticProjectTesting_Aug2015_VS2015/EmptyGeneralTesting/Release/Test1/QuerySet1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="197">
   <si>
     <t>Index</t>
   </si>
@@ -277,9 +277,6 @@
     <t>Select SingleSynonym Stmt Follows SynonymSynonym GetBack HaveResult</t>
   </si>
   <si>
-    <t>Select SingleSynonym Stmt Follows SynonymUnderscore NoResult</t>
-  </si>
-  <si>
     <t>Select SingleSynonym Assign Follows IntInt HaveResult</t>
   </si>
   <si>
@@ -322,9 +319,6 @@
     <t>Select SingleSynonym Assign Follows SynonymSynonym GetBack HaveResult</t>
   </si>
   <si>
-    <t>Select SingleSynonym Assign Follows SynonymUnderscore NoResult</t>
-  </si>
-  <si>
     <t>Select SingleSynonym While Follows IntInt HaveResult</t>
   </si>
   <si>
@@ -358,9 +352,6 @@
     <t>Select SingleSynonym While Follows SynonymUnderscore HaveResult</t>
   </si>
   <si>
-    <t>Select SingleSynonym While Follows SynonymUnderscore NoResult</t>
-  </si>
-  <si>
     <t>assign a1, a2;</t>
   </si>
   <si>
@@ -487,10 +478,142 @@
     <t>Select SingleSynonym While Follows SynonymSynonym GetBack NoResult</t>
   </si>
   <si>
-    <t>aaaa</t>
-  </si>
-  <si>
-    <t>hello test test</t>
+    <t>Select SingleSynonym Stmt Follows SynonymSynonym Same NoResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym While Follows SynonymSynonym Same NoResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Assign Follows SynonymSynonym Same NoResult</t>
+  </si>
+  <si>
+    <t>Select s such that Follows(1, 2) and Follows*(1, 3)</t>
+  </si>
+  <si>
+    <t>Select s such that Follows(1, 2) such that Follows*(1, 3)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym SuchThat Follows SuchThat FollowsStar HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym SuchThat Follows And FollowsStar HaveResult</t>
+  </si>
+  <si>
+    <t>Select s such that Follows(1, 2) and Follows(2, 3)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt SuchThat Follows IntInt and Follows IntInt HaveResult</t>
+  </si>
+  <si>
+    <t>Select s such that Follows(1, 2) such that Follows(2, 3)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt SuchThat Follows IntInt SuchThat Follows IntInt HaveResult</t>
+  </si>
+  <si>
+    <t>Select s such that Follows(2, 1)</t>
+  </si>
+  <si>
+    <t>Follows IntInt 2nd Arg &gt; 1st Arg NoResult</t>
+  </si>
+  <si>
+    <t>recursion r;</t>
+  </si>
+  <si>
+    <t>Select r</t>
+  </si>
+  <si>
+    <t>Nonexistent Entity NoResult</t>
+  </si>
+  <si>
+    <t>Select s such that Mother(1, 2)</t>
+  </si>
+  <si>
+    <t>Nonexistent Relation NoResult</t>
+  </si>
+  <si>
+    <t>Selects</t>
+  </si>
+  <si>
+    <t>No Whitespace After Select NoResult</t>
+  </si>
+  <si>
+    <t>Select s suchthat Follows(1, 2)</t>
+  </si>
+  <si>
+    <t>Select s such         that Follows(1, 2)</t>
+  </si>
+  <si>
+    <t>Excessive Whitespace Within SuchThat Keyword NoResult</t>
+  </si>
+  <si>
+    <t>No Whitespace Within SuchThat Keyword NoResult</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Select s such that Follows ( 1 , 2 )</t>
+  </si>
+  <si>
+    <t>Tab within Follows Keyword</t>
+  </si>
+  <si>
+    <t>Select s such that Follows(1, 2)and Follows(2, 3)</t>
+  </si>
+  <si>
+    <t>AndKeyword StuckToBackOf PreviousRelation HaveResult</t>
+  </si>
+  <si>
+    <t>Select s such that</t>
+  </si>
+  <si>
+    <t>Incomplete Query</t>
+  </si>
+  <si>
+    <t>Select s such Follows(1, 2) that</t>
+  </si>
+  <si>
+    <t>Such and That Keywords Separated NoResult</t>
+  </si>
+  <si>
+    <t>Select s such that Follows(2, 2)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Follows IntInt SameInt NoResult</t>
+  </si>
+  <si>
+    <t>Select s such that Follows(1, 2, 3)</t>
+  </si>
+  <si>
+    <t>Follows Excessive Arguments NoResult</t>
+  </si>
+  <si>
+    <t>Select s such that Follows(1)</t>
+  </si>
+  <si>
+    <t>Follows LackOf Arguments NoResult</t>
+  </si>
+  <si>
+    <t>stmts; variable v;</t>
+  </si>
+  <si>
+    <t>Select s v</t>
+  </si>
+  <si>
+    <t>Invalid Select Arg NoResult</t>
+  </si>
+  <si>
+    <t>Follows (1, 2)</t>
+  </si>
+  <si>
+    <t>Missing SelectKeyword</t>
+  </si>
+  <si>
+    <t>stmt s</t>
+  </si>
+  <si>
+    <t>Missing SemiColon In Declaration NoResult</t>
+  </si>
+  <si>
+    <t>Missing Whitespace In Declaration Keyword NoResult</t>
   </si>
 </sst>
 </file>
@@ -569,7 +692,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -602,6 +725,10 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -884,36 +1011,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3B02F3-8668-4835-B18A-9EFEA275CE21}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="37.140625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="76.85546875" style="14" customWidth="1"/>
     <col min="4" max="4" width="39.7109375" style="14" customWidth="1"/>
     <col min="5" max="5" width="35.85546875" style="14" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="11" t="s">
         <v>1</v>
       </c>
     </row>
@@ -985,25 +1112,144 @@
         <v>19</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="B7" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>5</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="E13" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>6</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>155</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1054,8 +1300,8 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>35</v>
+      <c r="B3" s="16" t="s">
+        <v>5</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>37</v>
@@ -1068,1006 +1314,1174 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>71</v>
+      <c r="B4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="9">
-        <v>2</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>72</v>
+      <c r="B5" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="9">
-        <v>8</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>73</v>
+      <c r="B6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>74</v>
+      <c r="B7" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="9">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>79</v>
+      <c r="B8" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="9">
-        <v>3</v>
+        <v>20</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>40</v>
+        <v>21</v>
+      </c>
+      <c r="D14" s="9">
+        <v>2</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>40</v>
+        <v>22</v>
+      </c>
+      <c r="D15" s="9">
+        <v>8</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="D20" s="9">
+        <v>1</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>144</v>
+        <v>5</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>144</v>
+        <v>5</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>15</v>
+        <v>29</v>
+      </c>
+      <c r="D22" s="9">
+        <v>3</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>144</v>
+        <v>5</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>63</v>
+        <v>38</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>144</v>
+        <v>8</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>144</v>
+        <v>8</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>38</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>144</v>
+        <v>8</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>128</v>
+        <v>46</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>38</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>6</v>
+        <v>141</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D35" s="9">
-        <v>2</v>
+        <v>49</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>6</v>
+        <v>141</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D36" s="9">
-        <v>8</v>
+        <v>50</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>6</v>
+        <v>141</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>133</v>
+        <v>51</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>6</v>
+        <v>141</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>6</v>
+        <v>141</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>135</v>
+        <v>53</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>6</v>
+        <v>141</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="D41" s="9">
-        <v>1</v>
+        <v>125</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>38</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>146</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>147</v>
+        <v>128</v>
+      </c>
+      <c r="D44" s="9">
+        <v>2</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>112</v>
+        <v>6</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>148</v>
+        <v>129</v>
+      </c>
+      <c r="D45" s="9">
+        <v>8</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>112</v>
+        <v>6</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>149</v>
+        <v>14</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>38</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D48" s="9">
-        <v>3</v>
+        <v>132</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="D50" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="D51" s="9">
-        <v>3</v>
+        <v>135</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="D52" s="9" t="s">
         <v>38</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D53" s="9">
-        <v>3</v>
+        <v>137</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D55" s="9">
-        <v>3</v>
+        <v>139</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>146</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D56" s="9">
-        <v>3</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>107</v>
+        <v>140</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D57" s="9">
         <v>3</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>38</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D59" s="9">
         <v>3</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>38</v>
+        <v>147</v>
+      </c>
+      <c r="D60" s="9">
+        <v>3</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="D61" s="9" t="s">
         <v>38</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>38</v>
+        <v>115</v>
+      </c>
+      <c r="D62" s="9">
+        <v>3</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>111</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="7">
+        <v>53</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="7">
+        <v>54</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D64" s="9">
+        <v>3</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="7">
+        <v>55</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D65" s="9">
+        <v>3</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="7">
+        <v>56</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D66" s="9">
+        <v>3</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="7">
+        <v>57</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="7">
+        <v>59</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D68" s="9">
+        <v>3</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="7">
+        <v>60</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="7">
+        <v>61</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="7">
+        <v>62</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B72" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B73" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B74" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B75" s="16" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2081,7 +2495,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2095,19 +2509,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="11" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2126,7 +2540,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2135,19 +2549,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="11" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2170,7 +2584,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2179,19 +2593,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="11" t="s">
         <v>1</v>
       </c>
     </row>

--- a/AutomaticProjectTesting_Aug2015_VS2015/EmptyGeneralTesting/Release/Test1/QuerySet1.xlsx
+++ b/AutomaticProjectTesting_Aug2015_VS2015/EmptyGeneralTesting/Release/Test1/QuerySet1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="219">
   <si>
     <t>Index</t>
   </si>
@@ -614,13 +614,79 @@
   </si>
   <si>
     <t>Missing Whitespace In Declaration Keyword NoResult</t>
+  </si>
+  <si>
+    <t>select s</t>
+  </si>
+  <si>
+    <t>NonCapitalised SelectKeyword NoReslt</t>
+  </si>
+  <si>
+    <t>stmt Select;</t>
+  </si>
+  <si>
+    <t>Select Select</t>
+  </si>
+  <si>
+    <t>SelectKeyword as Entity HaveResult</t>
+  </si>
+  <si>
+    <t>Select Select Select</t>
+  </si>
+  <si>
+    <t>Select s Follows(1, 2)</t>
+  </si>
+  <si>
+    <t>Missing SuchThat Keyword</t>
+  </si>
+  <si>
+    <t>stmt Follows;</t>
+  </si>
+  <si>
+    <t>Select Follows such that Follows(1, 2)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Follows IntInt FollowsKeywordAsSynonym HaveResult</t>
+  </si>
+  <si>
+    <t>stmt s, Follows;</t>
+  </si>
+  <si>
+    <t>Select s such that Follows(Follows, 2)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Follows SynonymInt FollowsKeywordAsSynontm As RelationArg HaveResult</t>
+  </si>
+  <si>
+    <t>Select s such that Follows(1, 2) such that Follows*(1, 3) and Follows(4, 5)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym SuchThat Follows SuchThat FollowsStar And Follows HaveResult</t>
+  </si>
+  <si>
+    <t>Select s such that Follows(1, 2)such that Follows(2, 3)</t>
+  </si>
+  <si>
+    <t>SuchThatKeyword StuckToBackOf PreviousRelation HaveResult</t>
+  </si>
+  <si>
+    <t>Select s such that Follows(1, 2) andFollows(2, 3)</t>
+  </si>
+  <si>
+    <t>AndKeyword StuckToFrontOf PreviousRelation NoResult</t>
+  </si>
+  <si>
+    <t>Select s such that Follows(1, 2) such thatFollows(2, 3)</t>
+  </si>
+  <si>
+    <t>SuchThatKeyword StuckToFrontOf PreviousRelation NoResult</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -671,6 +737,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -692,7 +773,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -720,11 +801,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1011,231 +1101,317 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3B02F3-8668-4835-B18A-9EFEA275CE21}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="76.85546875" style="14" customWidth="1"/>
-    <col min="4" max="4" width="39.7109375" style="14" customWidth="1"/>
-    <col min="5" max="5" width="35.85546875" style="14" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="14"/>
+    <col min="1" max="1" width="6" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="76.85546875" style="18" customWidth="1"/>
+    <col min="4" max="4" width="39.7109375" style="18" customWidth="1"/>
+    <col min="5" max="5" width="35.85546875" style="18" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="17" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+      <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+      <c r="A3" s="19">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="A4" s="19">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="20">
         <v>3</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="A5" s="19">
         <v>4</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="18" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="14" t="s">
+      <c r="A6" s="19">
+        <v>5</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="14" t="s">
+      <c r="D6" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="18" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="s">
+      <c r="A7" s="19">
+        <v>6</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="14" t="s">
+      <c r="D7" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="18" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="14" t="s">
+      <c r="A8" s="19">
+        <v>7</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="14" t="s">
+      <c r="D8" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="14" t="s">
+      <c r="A9" s="19">
+        <v>8</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="14" t="s">
+      <c r="D9" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="18" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="14" t="s">
+      <c r="A10" s="19">
+        <v>9</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="19">
+        <v>10</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="19">
+        <v>11</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="19">
+        <v>12</v>
+      </c>
+      <c r="B13" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C13" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="14" t="s">
+      <c r="D13" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="18" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="14" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="19">
+        <v>13</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="14" t="s">
+      <c r="D14" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="18" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="14" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="19">
+        <v>14</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="14" t="s">
+      <c r="D15" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="18" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
-        <v>5</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="14" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="19">
+        <v>15</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E16" s="18" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
-        <v>6</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="14" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="19">
+        <v>16</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E17" s="18" t="s">
         <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="19">
+        <v>17</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -1246,10 +1422,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1300,7 +1476,7 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -1314,1174 +1490,1294 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="16" t="s">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="16" t="s">
+      <c r="D4" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="16" t="s">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="16" t="s">
+      <c r="D5" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="16" t="s">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="16" t="s">
+      <c r="D6" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="16" t="s">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="16" t="s">
+      <c r="D7" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="16" t="s">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="16" t="s">
+      <c r="D8" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="14" t="s">
+    <row r="9" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="14" t="s">
+      <c r="D9" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="14" t="s">
+    <row r="10" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="14" t="s">
+      <c r="D10" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="14" t="s">
+    <row r="11" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="14" t="s">
+      <c r="D11" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="14" t="s">
+    <row r="12" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="14" t="s">
+      <c r="D14" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>193</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>3</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>4</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="9">
-        <v>2</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="9">
-        <v>8</v>
+        <v>20</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="D16" s="9">
+        <v>2</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>38</v>
+        <v>22</v>
+      </c>
+      <c r="D17" s="9">
+        <v>8</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="9">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
-        <v>12</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="9">
-        <v>3</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>80</v>
+        <v>21</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>40</v>
+        <v>27</v>
+      </c>
+      <c r="D23" s="9">
+        <v>1</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>39</v>
+        <v>29</v>
+      </c>
+      <c r="D25" s="9">
+        <v>3</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>151</v>
+        <v>40</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>57</v>
+        <v>38</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>141</v>
+        <v>8</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>141</v>
+        <v>8</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>8</v>
+        <v>141</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>8</v>
+        <v>141</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>141</v>
+        <v>8</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>141</v>
+        <v>8</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>141</v>
+        <v>8</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>141</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>141</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>141</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>38</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>6</v>
+        <v>141</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>6</v>
+        <v>141</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>6</v>
+        <v>141</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="D44" s="9">
-        <v>2</v>
+        <v>125</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D45" s="9">
-        <v>8</v>
+        <v>126</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>38</v>
+        <v>128</v>
+      </c>
+      <c r="D47" s="9">
+        <v>2</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>14</v>
+        <v>129</v>
+      </c>
+      <c r="D48" s="9">
+        <v>8</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>142</v>
+        <v>14</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D50" s="9">
-        <v>1</v>
+        <v>131</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>143</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>144</v>
+        <v>134</v>
+      </c>
+      <c r="D53" s="9">
+        <v>1</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>109</v>
+        <v>6</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>109</v>
+        <v>6</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>146</v>
+        <v>38</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>153</v>
+        <v>144</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D57" s="9">
-        <v>3</v>
+        <v>138</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>145</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>38</v>
+        <v>146</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D59" s="9">
-        <v>3</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>100</v>
+        <v>140</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="D60" s="9">
         <v>3</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D61" s="9" t="s">
         <v>38</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D62" s="9">
         <v>3</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>38</v>
+        <v>147</v>
+      </c>
+      <c r="D63" s="9">
+        <v>3</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D64" s="9">
-        <v>3</v>
+        <v>114</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>104</v>
+        <v>148</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D65" s="9">
         <v>3</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D66" s="9">
-        <v>3</v>
+        <v>116</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>38</v>
+        <v>117</v>
+      </c>
+      <c r="D67" s="9">
+        <v>3</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="7">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D68" s="9">
         <v>3</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>110</v>
+        <v>7</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>38</v>
+        <v>120</v>
+      </c>
+      <c r="D69" s="9">
+        <v>3</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>110</v>
+        <v>7</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D70" s="9" t="s">
         <v>38</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C71" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D71" s="9">
+        <v>3</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="7">
+        <v>71</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="7">
+        <v>72</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="7">
+        <v>73</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="D71" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E71" s="16" t="s">
+      <c r="D74" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E74" s="14" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B72" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C72" s="16" t="s">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="7">
+        <v>74</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="E72" s="16" t="s">
+      <c r="E75" s="14" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B73" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73" s="16" t="s">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="7">
+        <v>75</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="E73" s="16" t="s">
+      <c r="E76" s="14" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B74" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C74" s="16" t="s">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="7">
+        <v>76</v>
+      </c>
+      <c r="B77" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="D77" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E77" s="21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="7">
+        <v>77</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="E74" s="16" t="s">
+      <c r="E78" s="14" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B75" s="16" t="s">
-        <v>5</v>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="7">
+        <v>78</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="E79" s="21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="7">
+        <v>79</v>
+      </c>
+      <c r="B80" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="D80" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E80" s="21" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -2495,7 +2791,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/AutomaticProjectTesting_Aug2015_VS2015/EmptyGeneralTesting/Release/Test1/QuerySet1.xlsx
+++ b/AutomaticProjectTesting_Aug2015_VS2015/EmptyGeneralTesting/Release/Test1/QuerySet1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Complex" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="267">
   <si>
     <t>Index</t>
   </si>
@@ -604,9 +604,6 @@
     <t>Follows (1, 2)</t>
   </si>
   <si>
-    <t>Missing SelectKeyword</t>
-  </si>
-  <si>
     <t>stmt s</t>
   </si>
   <si>
@@ -637,9 +634,6 @@
     <t>Select s Follows(1, 2)</t>
   </si>
   <si>
-    <t>Missing SuchThat Keyword</t>
-  </si>
-  <si>
     <t>stmt Follows;</t>
   </si>
   <si>
@@ -680,6 +674,156 @@
   </si>
   <si>
     <t>SuchThatKeyword StuckToFrontOf PreviousRelation NoResult</t>
+  </si>
+  <si>
+    <t>Missing SuchThat Keyword NoResult</t>
+  </si>
+  <si>
+    <t>Missing SelectKeyword NoResult</t>
+  </si>
+  <si>
+    <t>Select s such that Follows(1, _) and Follows(2, _)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Follows IntUnderscore And Follows IntUnderscore HaveResult</t>
+  </si>
+  <si>
+    <t>Select s such that Follows(1, s) and Follows(2, s)</t>
+  </si>
+  <si>
+    <t>stmt s1, s2, s3;</t>
+  </si>
+  <si>
+    <t>Select s1 such that Follows(1, s2) and Follows(2, s3)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Follows IntSynonym And Follows IntSynonym BothRelationSameSynonym NoResult</t>
+  </si>
+  <si>
+    <t>Select s1 such that Follows(1, s1) and Follows(2, s2)</t>
+  </si>
+  <si>
+    <t>Select s2 such that Follows(1, s1) and Follows(2, s2)</t>
+  </si>
+  <si>
+    <t>Select s such that Follows(_, 2) and Follows(_, 4)</t>
+  </si>
+  <si>
+    <t>Select s such that Follows(_, 2) and Follows(_, 5)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Follows UnderscoreInt And Follows UnderscoreInt NoResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Follows UnderscoreInt And Follows UnderscoreInt HaveResult</t>
+  </si>
+  <si>
+    <t>Select s such that Follows(_, _) and Follows(_, _)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Follows UnderscoreUnderscore And Follows UnderscoreUnderscore HaveResult</t>
+  </si>
+  <si>
+    <t>Select s such that Follows(_, s) and Follows(_, s)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Follows UnderscoreSynonym And Follows UnderscoreSynonym CommonSynonym HaveResult</t>
+  </si>
+  <si>
+    <t>Select s1 such that Follows(_, s2) and Follows(_, s3)</t>
+  </si>
+  <si>
+    <t>Select s1 such that Follows(_, s1) and Follows(_, s2)</t>
+  </si>
+  <si>
+    <t>Select s2 such that Follows(_, s1) and Follows(_, s2)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Follows UnderscoreSynonym And Follows UnderscoreSynonym UniqueSynonym HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Follows UnderscoreSynonym And Follows UnderscoreSynonym GetFront HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Follows UnderscoreSynonym And Follows UnderscoreSynonym GetBack HaveResult</t>
+  </si>
+  <si>
+    <t>Select s such that Follows(s, 2) and Follows(s, 3)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Follows IntSynonym And Follows IntSynonym BothRelationDiffSynonym HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Follows IntSynonym And Follows IntSynonym GetFront HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Follows IntSynonym And Follows IntSynonym GetBack HaveResult</t>
+  </si>
+  <si>
+    <t>Select s1 such that Follows(s1, 2) and Follows(s2, 3)</t>
+  </si>
+  <si>
+    <t>Select s2 such that Follows(s1, 2) and Follows(s2, 3)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Follows SynonymInt And Follows SynonymInt BothRelation SameSynonym NoResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Follows SynonymInt And Follows SynonymInt GetFront HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Follows SynonymInt And Follows SynonymInt GetBack HaveResult</t>
+  </si>
+  <si>
+    <t>Select s1 such that Follows(s1, _) and Follows(s2, _)</t>
+  </si>
+  <si>
+    <t>Select s2 such that Follows(s1, _) and Follows(s2, _)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Follows SynonymUnderscore And Follows SynonymUnderscore GetFront HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Follows SynonymUnderscore And Follows SynonymUnderscore GetBack HaveResult</t>
+  </si>
+  <si>
+    <t>Select s1 such that Follows(s1, s2) and Follows(s2, s3)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Follows SynonymSynonym And Follows SynonymSynonym Chain GetFirst HaveResult</t>
+  </si>
+  <si>
+    <t>Select s2 such that Follows(s1, s2) and Follows(s2, s3)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Follows SynonymSynonym And Follows SynonymSynonym Chain GetMiddle HaveResult</t>
+  </si>
+  <si>
+    <t>Select s3 such that Follows(s1, s2) and Follows(s2, s3)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Follows SynonymSynonym And Follows SynonymSynonym Chain GetLast HaveResult</t>
+  </si>
+  <si>
+    <t>Select s1 such that Follows(s1, s3) and Follows(s2, s3)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Follows SynonymSynonym And Follows SynonymSynonym Chain s3ShldNotFollowTwice NoResult</t>
+  </si>
+  <si>
+    <t>Select s1 such that Follows(s1, s2) and Follows(s1, s3)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Follows SynonymSynonym And Follows SynonymSynonym Chain s1ShldNotHaveTwoFollowers NoResult</t>
+  </si>
+  <si>
+    <t>1,2,4,5</t>
+  </si>
+  <si>
+    <t>2,3,5,6</t>
+  </si>
+  <si>
+    <t>3,6,7,8</t>
   </si>
 </sst>
 </file>
@@ -1103,8 +1247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3B02F3-8668-4835-B18A-9EFEA275CE21}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1207,7 +1351,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>12</v>
@@ -1216,7 +1360,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1233,7 +1377,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1275,16 +1419,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>199</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>200</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1295,13 +1439,13 @@
         <v>5</v>
       </c>
       <c r="C11" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="18" t="s">
         <v>197</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1309,10 +1453,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>38</v>
@@ -1382,6 +1526,9 @@
       <c r="C16" s="18" t="s">
         <v>154</v>
       </c>
+      <c r="D16" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="E16" s="18" t="s">
         <v>157</v>
       </c>
@@ -1396,6 +1543,9 @@
       <c r="C17" s="18" t="s">
         <v>155</v>
       </c>
+      <c r="D17" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="E17" s="18" t="s">
         <v>156</v>
       </c>
@@ -1408,10 +1558,13 @@
         <v>5</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>211</v>
+        <v>209</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>13</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -1422,10 +1575,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A80"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1434,7 +1587,7 @@
     <col min="2" max="2" width="54.85546875" style="8" customWidth="1"/>
     <col min="3" max="3" width="52.140625" style="8" customWidth="1"/>
     <col min="4" max="4" width="35.42578125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="66" style="8" customWidth="1"/>
+    <col min="5" max="5" width="127.7109375" style="8" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
@@ -1584,8 +1737,8 @@
       <c r="C9" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>38</v>
+      <c r="D9" s="21" t="s">
+        <v>13</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>176</v>
@@ -1630,13 +1783,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="21" t="s">
         <v>205</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -1647,13 +1803,13 @@
         <v>5</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>38</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -1669,8 +1825,8 @@
       <c r="D14" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>193</v>
+      <c r="E14" s="21" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1768,7 +1924,7 @@
       <c r="C20" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="22" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="8" t="s">
@@ -1797,13 +1953,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="21" t="s">
         <v>208</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2700,6 +2859,9 @@
       <c r="C75" s="14" t="s">
         <v>158</v>
       </c>
+      <c r="D75" s="22" t="s">
+        <v>13</v>
+      </c>
       <c r="E75" s="14" t="s">
         <v>159</v>
       </c>
@@ -2714,6 +2876,9 @@
       <c r="C76" s="14" t="s">
         <v>177</v>
       </c>
+      <c r="D76" s="22" t="s">
+        <v>13</v>
+      </c>
       <c r="E76" s="14" t="s">
         <v>178</v>
       </c>
@@ -2726,13 +2891,13 @@
         <v>5</v>
       </c>
       <c r="C77" s="21" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D77" s="22" t="s">
         <v>38</v>
       </c>
       <c r="E77" s="21" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2745,6 +2910,9 @@
       <c r="C78" s="14" t="s">
         <v>160</v>
       </c>
+      <c r="D78" s="22" t="s">
+        <v>13</v>
+      </c>
       <c r="E78" s="14" t="s">
         <v>161</v>
       </c>
@@ -2757,10 +2925,13 @@
         <v>5</v>
       </c>
       <c r="C79" s="21" t="s">
-        <v>213</v>
+        <v>211</v>
+      </c>
+      <c r="D79" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="E79" s="21" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -2771,13 +2942,387 @@
         <v>5</v>
       </c>
       <c r="C80" s="21" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D80" s="22" t="s">
         <v>38</v>
       </c>
       <c r="E80" s="21" t="s">
-        <v>218</v>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="7">
+        <v>80</v>
+      </c>
+      <c r="B81" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="D81" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" s="21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="7">
+        <v>81</v>
+      </c>
+      <c r="B82" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="D82" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E82" s="21" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="7">
+        <v>82</v>
+      </c>
+      <c r="B83" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="C83" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="D83" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83" s="21" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="7">
+        <v>83</v>
+      </c>
+      <c r="B84" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="D84" s="9">
+        <v>2</v>
+      </c>
+      <c r="E84" s="21" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="7">
+        <v>84</v>
+      </c>
+      <c r="B85" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C85" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="D85" s="9">
+        <v>3</v>
+      </c>
+      <c r="E85" s="21" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="7">
+        <v>85</v>
+      </c>
+      <c r="B86" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="D86" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" s="21" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="7">
+        <v>86</v>
+      </c>
+      <c r="B87" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="D87" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E87" s="21" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="7">
+        <v>87</v>
+      </c>
+      <c r="B88" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="D88" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" s="21" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="7">
+        <v>88</v>
+      </c>
+      <c r="B89" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="D89" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E89" s="21" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="7">
+        <v>89</v>
+      </c>
+      <c r="B90" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="C90" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="D90" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" s="21" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="7">
+        <v>90</v>
+      </c>
+      <c r="B91" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C91" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="D91" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E91" s="21" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="7">
+        <v>91</v>
+      </c>
+      <c r="B92" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C92" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="D92" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E92" s="21" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="7">
+        <v>92</v>
+      </c>
+      <c r="B93" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="D93" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E93" s="21" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="7">
+        <v>93</v>
+      </c>
+      <c r="B94" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C94" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="D94" s="9">
+        <v>1</v>
+      </c>
+      <c r="E94" s="21" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="7">
+        <v>94</v>
+      </c>
+      <c r="B95" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C95" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="D95" s="9">
+        <v>2</v>
+      </c>
+      <c r="E95" s="21" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="7">
+        <v>95</v>
+      </c>
+      <c r="B96" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C96" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="D96" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E96" s="21" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="7">
+        <v>96</v>
+      </c>
+      <c r="B97" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C97" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E97" s="21" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="7">
+        <v>97</v>
+      </c>
+      <c r="B98" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="C98" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E98" s="21" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="7">
+        <v>98</v>
+      </c>
+      <c r="B99" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="C99" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E99" s="21" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="7">
+        <v>99</v>
+      </c>
+      <c r="B100" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="C100" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E100" s="21" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="7">
+        <v>100</v>
+      </c>
+      <c r="B101" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="C101" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="D101" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E101" s="21" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="7">
+        <v>101</v>
+      </c>
+      <c r="B102" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="C102" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="D102" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E102" s="21" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/AutomaticProjectTesting_Aug2015_VS2015/EmptyGeneralTesting/Release/Test1/QuerySet1.xlsx
+++ b/AutomaticProjectTesting_Aug2015_VS2015/EmptyGeneralTesting/Release/Test1/QuerySet1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Complex" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="271">
   <si>
     <t>Index</t>
   </si>
@@ -73,18 +73,6 @@
     <t>a,b,c,d,i,j</t>
   </si>
   <si>
-    <t>All statements</t>
-  </si>
-  <si>
-    <t>All assignments</t>
-  </si>
-  <si>
-    <t>All whiles</t>
-  </si>
-  <si>
-    <t>All varables</t>
-  </si>
-  <si>
     <t>Select s such that Follows(1, _)</t>
   </si>
   <si>
@@ -565,9 +553,6 @@
     <t>Select s such that</t>
   </si>
   <si>
-    <t>Incomplete Query</t>
-  </si>
-  <si>
     <t>Select s such Follows(1, 2) that</t>
   </si>
   <si>
@@ -616,9 +601,6 @@
     <t>select s</t>
   </si>
   <si>
-    <t>NonCapitalised SelectKeyword NoReslt</t>
-  </si>
-  <si>
     <t>stmt Select;</t>
   </si>
   <si>
@@ -824,6 +806,36 @@
   </si>
   <si>
     <t>3,6,7,8</t>
+  </si>
+  <si>
+    <t>Select BOOLEAN</t>
+  </si>
+  <si>
+    <t>Select Boolean ValidDeclaration HaveResult</t>
+  </si>
+  <si>
+    <t>Select Boolean InvalidDeclaration NoResult</t>
+  </si>
+  <si>
+    <t>NonCapitalised SelectKeyword NoResult</t>
+  </si>
+  <si>
+    <t>Select Boolean NoDeclaration HaveResult (Not possible)</t>
+  </si>
+  <si>
+    <t>All statements HaveResult</t>
+  </si>
+  <si>
+    <t>All assignments HaveResult</t>
+  </si>
+  <si>
+    <t>All whiles HaveResult</t>
+  </si>
+  <si>
+    <t>All variables HaveResult</t>
+  </si>
+  <si>
+    <t>Incomplete Query NoResult</t>
   </si>
 </sst>
 </file>
@@ -917,7 +929,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -950,19 +962,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1245,326 +1260,374 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3B02F3-8668-4835-B18A-9EFEA275CE21}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="76.85546875" style="18" customWidth="1"/>
-    <col min="4" max="4" width="39.7109375" style="18" customWidth="1"/>
-    <col min="5" max="5" width="35.85546875" style="18" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="18"/>
+    <col min="1" max="1" width="6" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="76.85546875" style="21" customWidth="1"/>
+    <col min="4" max="4" width="39.7109375" style="23" customWidth="1"/>
+    <col min="5" max="5" width="35.85546875" style="21" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="19" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="19">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="18" t="s">
+      <c r="B2" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="21" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="22">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="22">
+        <v>3</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="23">
+        <v>3</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
+        <v>4</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="22">
+        <v>5</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
+        <v>6</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="22">
+        <v>7</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
+        <v>8</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="22">
+        <v>9</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="22">
+        <v>10</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="22">
+        <v>11</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="22">
+        <v>12</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="22">
+        <v>13</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="22">
+        <v>14</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="22">
+        <v>15</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="22">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
-        <v>2</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="18" t="s">
+      <c r="B17" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="22">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
-        <v>3</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="20">
-        <v>3</v>
-      </c>
-      <c r="E4" s="18" t="s">
+      <c r="B18" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="22">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
-        <v>4</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="18" t="s">
+      <c r="C19" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="D19" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="22">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
-        <v>5</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
-        <v>6</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
-        <v>7</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
-        <v>8</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
-        <v>9</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
-        <v>10</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
-        <v>11</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="19">
-        <v>12</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
-        <v>13</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
-        <v>14</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="19">
-        <v>15</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="19">
-        <v>16</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
-        <v>17</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>210</v>
+      <c r="B20" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="D20" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="22">
+        <v>20</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="D21" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -1577,8 +1640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1616,13 +1679,13 @@
         <v>5</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1633,13 +1696,13 @@
         <v>5</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1650,13 +1713,13 @@
         <v>5</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1667,13 +1730,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1684,13 +1747,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1701,13 +1764,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1718,13 +1781,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -1735,13 +1798,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D9" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="D9" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -1752,13 +1815,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -1769,47 +1832,47 @@
         <v>5</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="D12" s="21" t="s">
+      <c r="B12" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="21" t="s">
-        <v>205</v>
+      <c r="E12" s="16" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>217</v>
+      <c r="B13" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -1820,13 +1883,13 @@
         <v>5</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>218</v>
+        <v>34</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1837,13 +1900,13 @@
         <v>5</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1854,13 +1917,13 @@
         <v>5</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D16" s="9">
         <v>2</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1871,13 +1934,13 @@
         <v>5</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D17" s="9">
         <v>8</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1888,13 +1951,13 @@
         <v>5</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1905,13 +1968,13 @@
         <v>5</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1922,13 +1985,13 @@
         <v>5</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1939,30 +2002,30 @@
         <v>5</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="D22" s="22" t="s">
+      <c r="B22" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="D22" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="21" t="s">
-        <v>208</v>
+      <c r="E22" s="16" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1973,13 +2036,13 @@
         <v>5</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D23" s="9">
         <v>1</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1990,13 +2053,13 @@
         <v>5</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2007,13 +2070,13 @@
         <v>5</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D25" s="9">
         <v>3</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2024,13 +2087,13 @@
         <v>5</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -2038,16 +2101,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2055,16 +2118,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -2075,13 +2138,13 @@
         <v>5</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2092,13 +2155,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2109,13 +2172,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2126,13 +2189,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2140,16 +2203,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2157,16 +2220,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2177,13 +2240,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -2194,13 +2257,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -2211,13 +2274,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2225,16 +2288,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -2242,16 +2305,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2259,16 +2322,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2276,16 +2339,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -2293,16 +2356,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -2310,16 +2373,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -2330,13 +2393,13 @@
         <v>6</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2347,13 +2410,13 @@
         <v>6</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -2364,13 +2427,13 @@
         <v>6</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -2381,13 +2444,13 @@
         <v>6</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D47" s="9">
         <v>2</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -2398,13 +2461,13 @@
         <v>6</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D48" s="9">
         <v>8</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -2415,13 +2478,13 @@
         <v>6</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D49" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2432,13 +2495,13 @@
         <v>6</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2449,13 +2512,13 @@
         <v>6</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D51" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2466,13 +2529,13 @@
         <v>6</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2483,13 +2546,13 @@
         <v>6</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D53" s="9">
         <v>1</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2500,13 +2563,13 @@
         <v>6</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2517,13 +2580,13 @@
         <v>6</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -2534,13 +2597,13 @@
         <v>6</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2548,16 +2611,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2565,16 +2628,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2585,13 +2648,13 @@
         <v>6</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2602,13 +2665,13 @@
         <v>7</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D60" s="9">
         <v>3</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2619,13 +2682,13 @@
         <v>7</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2636,13 +2699,13 @@
         <v>7</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D62" s="9">
         <v>3</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2653,13 +2716,13 @@
         <v>7</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D63" s="9">
         <v>3</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2670,13 +2733,13 @@
         <v>7</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2687,13 +2750,13 @@
         <v>7</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D65" s="9">
         <v>3</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2704,13 +2767,13 @@
         <v>7</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2721,13 +2784,13 @@
         <v>7</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D67" s="9">
         <v>3</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2738,13 +2801,13 @@
         <v>7</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D68" s="9">
         <v>3</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2755,13 +2818,13 @@
         <v>7</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D69" s="9">
         <v>3</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2772,13 +2835,13 @@
         <v>7</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2789,13 +2852,13 @@
         <v>7</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D71" s="9">
         <v>3</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2803,16 +2866,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2820,16 +2883,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2840,13 +2903,13 @@
         <v>7</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E74" s="14" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -2857,13 +2920,13 @@
         <v>5</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="D75" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D75" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2874,30 +2937,30 @@
         <v>5</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="D76" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="D76" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
         <v>76</v>
       </c>
-      <c r="B77" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C77" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="D77" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E77" s="21" t="s">
-        <v>214</v>
+      <c r="B77" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2908,13 +2971,13 @@
         <v>5</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="D78" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="D78" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E78" s="14" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -2924,405 +2987,405 @@
       <c r="B79" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C79" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="D79" s="22" t="s">
+      <c r="C79" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="D79" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="21" t="s">
-        <v>212</v>
+      <c r="E79" s="16" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="7">
         <v>79</v>
       </c>
-      <c r="B80" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C80" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="D80" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E80" s="21" t="s">
-        <v>216</v>
+      <c r="B80" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E80" s="16" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="7">
         <v>80</v>
       </c>
-      <c r="B81" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C81" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="D81" s="22" t="s">
+      <c r="B81" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D81" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E81" s="21" t="s">
-        <v>220</v>
+      <c r="E81" s="16" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="7">
         <v>81</v>
       </c>
-      <c r="B82" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C82" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="D82" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E82" s="21" t="s">
-        <v>224</v>
+      <c r="B82" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E82" s="16" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="7">
         <v>82</v>
       </c>
-      <c r="B83" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="C83" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="D83" s="22" t="s">
+      <c r="B83" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="C83" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="D83" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E83" s="21" t="s">
-        <v>242</v>
+      <c r="E83" s="16" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="7">
         <v>83</v>
       </c>
-      <c r="B84" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C84" s="21" t="s">
-        <v>225</v>
+      <c r="B84" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>219</v>
       </c>
       <c r="D84" s="9">
         <v>2</v>
       </c>
-      <c r="E84" s="21" t="s">
-        <v>243</v>
+      <c r="E84" s="16" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="7">
         <v>84</v>
       </c>
-      <c r="B85" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C85" s="21" t="s">
-        <v>226</v>
+      <c r="B85" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>220</v>
       </c>
       <c r="D85" s="9">
         <v>3</v>
       </c>
-      <c r="E85" s="21" t="s">
-        <v>244</v>
+      <c r="E85" s="16" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="7">
         <v>85</v>
       </c>
-      <c r="B86" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C86" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="D86" s="22" t="s">
+      <c r="B86" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="D86" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E86" s="21" t="s">
-        <v>230</v>
+      <c r="E86" s="16" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="7">
         <v>86</v>
       </c>
-      <c r="B87" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C87" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="D87" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E87" s="21" t="s">
-        <v>229</v>
+      <c r="B87" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E87" s="16" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="7">
         <v>87</v>
       </c>
-      <c r="B88" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C88" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="D88" s="22" t="s">
+      <c r="B88" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="D88" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E88" s="21" t="s">
-        <v>232</v>
+      <c r="E88" s="16" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="7">
         <v>88</v>
       </c>
-      <c r="B89" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C89" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="D89" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E89" s="21" t="s">
-        <v>234</v>
+      <c r="B89" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="D89" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E89" s="16" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="7">
         <v>89</v>
       </c>
-      <c r="B90" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="C90" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="D90" s="22" t="s">
+      <c r="B90" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="D90" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E90" s="21" t="s">
-        <v>238</v>
+      <c r="E90" s="16" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="7">
         <v>90</v>
       </c>
-      <c r="B91" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C91" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="D91" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E91" s="21" t="s">
-        <v>239</v>
+      <c r="B91" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C91" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E91" s="16" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="7">
         <v>91</v>
       </c>
-      <c r="B92" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C92" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="D92" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E92" s="21" t="s">
-        <v>240</v>
+      <c r="B92" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="D92" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E92" s="16" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="7">
         <v>92</v>
       </c>
-      <c r="B93" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C93" s="21" t="s">
+      <c r="B93" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="D93" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E93" s="16" t="s">
         <v>241</v>
-      </c>
-      <c r="D93" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E93" s="21" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="7">
         <v>93</v>
       </c>
-      <c r="B94" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C94" s="21" t="s">
-        <v>245</v>
+      <c r="B94" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C94" s="16" t="s">
+        <v>239</v>
       </c>
       <c r="D94" s="9">
         <v>1</v>
       </c>
-      <c r="E94" s="21" t="s">
-        <v>248</v>
+      <c r="E94" s="16" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="7">
         <v>94</v>
       </c>
-      <c r="B95" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C95" s="21" t="s">
-        <v>246</v>
+      <c r="B95" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C95" s="16" t="s">
+        <v>240</v>
       </c>
       <c r="D95" s="9">
         <v>2</v>
       </c>
-      <c r="E95" s="21" t="s">
-        <v>249</v>
+      <c r="E95" s="16" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="7">
         <v>95</v>
       </c>
-      <c r="B96" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C96" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="D96" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E96" s="21" t="s">
-        <v>252</v>
+      <c r="B96" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C96" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="D96" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E96" s="16" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="7">
         <v>96</v>
       </c>
-      <c r="B97" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C97" s="21" t="s">
-        <v>251</v>
+      <c r="B97" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>245</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E97" s="21" t="s">
-        <v>253</v>
+        <v>36</v>
+      </c>
+      <c r="E97" s="16" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="7">
         <v>97</v>
       </c>
-      <c r="B98" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="C98" s="21" t="s">
-        <v>254</v>
+      <c r="B98" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="C98" s="16" t="s">
+        <v>248</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="E98" s="21" t="s">
-        <v>255</v>
+        <v>258</v>
+      </c>
+      <c r="E98" s="16" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="7">
         <v>98</v>
       </c>
-      <c r="B99" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="C99" s="21" t="s">
-        <v>256</v>
+      <c r="B99" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="C99" s="16" t="s">
+        <v>250</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="E99" s="21" t="s">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="E99" s="16" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="7">
         <v>99</v>
       </c>
-      <c r="B100" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="C100" s="21" t="s">
-        <v>258</v>
+      <c r="B100" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="C100" s="16" t="s">
+        <v>252</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="E100" s="21" t="s">
-        <v>259</v>
+        <v>260</v>
+      </c>
+      <c r="E100" s="16" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="7">
         <v>100</v>
       </c>
-      <c r="B101" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="C101" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="D101" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E101" s="21" t="s">
-        <v>261</v>
+      <c r="B101" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="C101" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="D101" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E101" s="16" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="7">
         <v>101</v>
       </c>
-      <c r="B102" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="C102" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="D102" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E102" s="21" t="s">
-        <v>263</v>
+      <c r="B102" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="C102" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="D102" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E102" s="16" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/AutomaticProjectTesting_Aug2015_VS2015/EmptyGeneralTesting/Release/Test1/QuerySet1.xlsx
+++ b/AutomaticProjectTesting_Aug2015_VS2015/EmptyGeneralTesting/Release/Test1/QuerySet1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="451">
   <si>
     <t>Index</t>
   </si>
@@ -832,27 +832,553 @@
   </si>
   <si>
     <t>Incomplete Query NoResult</t>
+  </si>
+  <si>
+    <t>Select s such that Follows*(1, _)</t>
+  </si>
+  <si>
+    <t>Select s such that Follows*(1, s)</t>
+  </si>
+  <si>
+    <t>Select s such that Follows*(3, s)</t>
+  </si>
+  <si>
+    <t>Select s such that Follows*(_, 3)</t>
+  </si>
+  <si>
+    <t>Select s such that Follows*(_, 1)</t>
+  </si>
+  <si>
+    <t>Select s such that Follows*(_, _)</t>
+  </si>
+  <si>
+    <t>Select s such that Follows*(_, s)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt FollowsStar IntUnderscore HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt FollowsStar IntSynonym HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt FollowsStar IntSynonym BehindWhile HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt FollowsStar UnderscoreInt HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt FollowsStar UnderscoreInt NoResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt FollowsStar UnderscoreUnderscore HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt FollowsStar UnderscoreSynonym HaveResult</t>
+  </si>
+  <si>
+    <t>Select s such that Follows*(s, 2)</t>
+  </si>
+  <si>
+    <t>Select s such that Follows*(s, 1)</t>
+  </si>
+  <si>
+    <t>Select s such that Follows*(s, 8)</t>
+  </si>
+  <si>
+    <t>Select s such that Follows*(s, _)</t>
+  </si>
+  <si>
+    <t>Select s1 such that Follows*(s1, s2)</t>
+  </si>
+  <si>
+    <t>Select s2 such that Follows*(s1, s2)</t>
+  </si>
+  <si>
+    <t>Select s such that Follows*(s, s)</t>
+  </si>
+  <si>
+    <t>Select v such that Follows*(1, 2)</t>
+  </si>
+  <si>
+    <t>Select v such that Follows*(3, 4)</t>
+  </si>
+  <si>
+    <t>Select v such that Follows*(1, _)</t>
+  </si>
+  <si>
+    <t>Select v such that Follows*(1, s)</t>
+  </si>
+  <si>
+    <t>Select v such that Follows*(3, s)</t>
+  </si>
+  <si>
+    <t>Select v such that Follows*(_, 3)</t>
+  </si>
+  <si>
+    <t>Select v such that Follows*(_, 1)</t>
+  </si>
+  <si>
+    <t>Select v such that Follows*(_, _)</t>
+  </si>
+  <si>
+    <t>Select v such that Follows*(_, s)</t>
+  </si>
+  <si>
+    <t>Select v such that Follows*(s, 2)</t>
+  </si>
+  <si>
+    <t>Select v such that Follows*(s, 1)</t>
+  </si>
+  <si>
+    <t>Select v such that Follows*(s, 8)</t>
+  </si>
+  <si>
+    <t>Select v such that Follows*(s, _)</t>
+  </si>
+  <si>
+    <t>Select v such that Follows*(v, s)</t>
+  </si>
+  <si>
+    <t>Select a such that Follows*(1, 2)</t>
+  </si>
+  <si>
+    <t>Select a such that Follows*(3, 4)</t>
+  </si>
+  <si>
+    <t>Select a such that Follows*(1, _)</t>
+  </si>
+  <si>
+    <t>Select a such that Follows*(1, a)</t>
+  </si>
+  <si>
+    <t>Select a such that Follows*(3, a)</t>
+  </si>
+  <si>
+    <t>Select a such that Follows*(_, 3)</t>
+  </si>
+  <si>
+    <t>Select a such that Follows*(_, 1)</t>
+  </si>
+  <si>
+    <t>Select a such that Follows*(_, _)</t>
+  </si>
+  <si>
+    <t>Select a such that Follows*(_, a)</t>
+  </si>
+  <si>
+    <t>Select a such that Follows*(a, 2)</t>
+  </si>
+  <si>
+    <t>Select a such that Follows*(a, 1)</t>
+  </si>
+  <si>
+    <t>Select a such that Follows*(a, 8)</t>
+  </si>
+  <si>
+    <t>Select a such that Follows*(a, _)</t>
+  </si>
+  <si>
+    <t>Select a1 such that Follows*(a1, a2)</t>
+  </si>
+  <si>
+    <t>Select a2 such that Follows*(a1, a2)</t>
+  </si>
+  <si>
+    <t>Select a such that Follows*(a, a)</t>
+  </si>
+  <si>
+    <t>Select w such that Follows*(1, 2)</t>
+  </si>
+  <si>
+    <t>Select w such that Follows*(3, 4)</t>
+  </si>
+  <si>
+    <t>Select w such that Follows*(1, _)</t>
+  </si>
+  <si>
+    <t>Select w such that Follows*(2, w)</t>
+  </si>
+  <si>
+    <t>Select w such that Follows*(3, w)</t>
+  </si>
+  <si>
+    <t>Select w such that Follows*(_, 3)</t>
+  </si>
+  <si>
+    <t>Select w such that Follows*(_, 1)</t>
+  </si>
+  <si>
+    <t>Select w such that Follows*(_, _)</t>
+  </si>
+  <si>
+    <t>Select w such that Follows*(_, w)</t>
+  </si>
+  <si>
+    <t>Select w such that Follows*(w, 8)</t>
+  </si>
+  <si>
+    <t>Select w such that Follows*(w, 1)</t>
+  </si>
+  <si>
+    <t>Select w such that Follows*(w, _)</t>
+  </si>
+  <si>
+    <t>Select w1 such that Follows*(w1, w2)</t>
+  </si>
+  <si>
+    <t>Select w2 such that Follows*(w1, w2)</t>
+  </si>
+  <si>
+    <t>Select w such that Follows*(w, w)</t>
+  </si>
+  <si>
+    <t>Select s such that Follows*(1, 2) and Follows*(2, 3)</t>
+  </si>
+  <si>
+    <t>Select s such that Follows*(1, 2)and Follows*(2, 3)</t>
+  </si>
+  <si>
+    <t>Select s such that Follows*(1, 2) andFollows*(2, 3)</t>
+  </si>
+  <si>
+    <t>Select s such that Follows*(1, 2) such that Follows*(2, 3)</t>
+  </si>
+  <si>
+    <t>Select s such that Follows*(1, 2)such that Follows*(2, 3)</t>
+  </si>
+  <si>
+    <t>Select s such that Follows*(1, 2) such thatFollows*(2, 3)</t>
+  </si>
+  <si>
+    <t>Select s such that Follows*(1, _) and Follows*(2, _)</t>
+  </si>
+  <si>
+    <t>Select s such that Follows*(1, s) and Follows*(2, s)</t>
+  </si>
+  <si>
+    <t>Select s1 such that Follows*(1, s2) and Follows*(2, s3)</t>
+  </si>
+  <si>
+    <t>Select s1 such that Follows*(1, s1) and Follows*(2, s2)</t>
+  </si>
+  <si>
+    <t>Select s2 such that Follows*(1, s1) and Follows*(2, s2)</t>
+  </si>
+  <si>
+    <t>Select s such that Follows*(_, 2) and Follows*(_, 5)</t>
+  </si>
+  <si>
+    <t>Select s such that Follows*(_, 2) and Follows*(_, 4)</t>
+  </si>
+  <si>
+    <t>Select s such that Follows*(_, _) and Follows*(_, _)</t>
+  </si>
+  <si>
+    <t>Select s such that Follows*(_, s) and Follows*(_, s)</t>
+  </si>
+  <si>
+    <t>Select s1 such that Follows*(_, s2) and Follows*(_, s3)</t>
+  </si>
+  <si>
+    <t>Select s1 such that Follows*(_, s1) and Follows*(_, s2)</t>
+  </si>
+  <si>
+    <t>Select s2 such that Follows*(_, s1) and Follows*(_, s2)</t>
+  </si>
+  <si>
+    <t>Select s such that Follows*(s, 2) and Follows*(s, 3)</t>
+  </si>
+  <si>
+    <t>Select s1 such that Follows*(s1, 2) and Follows*(s2, 3)</t>
+  </si>
+  <si>
+    <t>Select s2 such that Follows*(s1, 2) and Follows*(s2, 3)</t>
+  </si>
+  <si>
+    <t>Select s1 such that Follows*(s1, _) and Follows*(s2, _)</t>
+  </si>
+  <si>
+    <t>Select s2 such that Follows*(s1, _) and Follows*(s2, _)</t>
+  </si>
+  <si>
+    <t>Select s1 such that Follows*(s1, s2) and Follows*(s2, s3)</t>
+  </si>
+  <si>
+    <t>Select s2 such that Follows*(s1, s2) and Follows*(s2, s3)</t>
+  </si>
+  <si>
+    <t>Select s3 such that Follows*(s1, s2) and Follows*(s2, s3)</t>
+  </si>
+  <si>
+    <t>Select s1 such that Follows*(s1, s3) and Follows*(s2, s3)</t>
+  </si>
+  <si>
+    <t>Select s1 such that Follows*(s1, s2) and Follows*(s1, s3)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt FollowsStar SynonymInt HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt FollowsStar SynonymInt NoResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt FollowsStar SynonymInt BeforeWhile HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt FollowsStar SynonymUnderscore HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt FollowsStar SynonymSynonym GetFront HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt FollowsStar SynonymSynonym GetBack HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt FollowsStar SynonymSynonym Same NoResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Variable FollowsStar IntInt HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Variable FollowsStar IntUnderscore HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Variable FollowsStar IntSynonym HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Variable FollowsStar IntSynonym BehindWhile HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Variable FollowsStar UnderscoreInt HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Variable FollowsStar UnderscoreInt NoResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Variable FollowsStar UnderscoreUnderscore HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Variable FollowsStar UnderscoreSynonym HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Variable FollowsStar SynonymInt HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Variable FollowsStar SynonymInt NoResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Variable FollowsStar SynonymInt BeforeWhile HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Variable FollowsStar SynonymUnderscore HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Variable FollowsStar Illegal Argument NoResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Assign FollowsStar IntInt HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Assign FollowsStar IntUnderscore HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Assign FollowsStar IntSynonym HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Assign FollowsStar IntSynonym BehindWhile HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Assign FollowsStar UnderscoreInt HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Assign FollowsStar UnderscoreInt NoResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Assign FollowsStar UnderscoreUnderscore HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Assign FollowsStar UnderscoreSynonym HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Assign FollowsStar SynonymInt HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Assign FollowsStar SynonymInt NoResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Assign FollowsStar SynonymInt BeforeIntNotAssign NoResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Assign FollowsStar SynonymUnderscore HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Assign FollowsStar SynonymSynonym GetFront HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Assign FollowsStar SynonymSynonym GetBack HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Assign FollowsStar SynonymSynonym Same NoResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym While FollowsStar IntInt HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym While FollowsStar IntUnderscore HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym While FollowsStar IntSynonym HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym While FollowsStar IntSynonym WhileFollowItself NoResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym While FollowsStar UnderscoreInt HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym While FollowsStar UnderscoreInt NoResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym While FollowsStar UnderscoreUnderscore HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym While FollowsStar UnderscoreSynonym HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym While FollowsStar SynonymInt HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym While FollowsStar SynonymInt NoResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym While FollowsStar SynonymUnderscore HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym While FollowsStar SynonymSynonym GetFront NoResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym While FollowsStar SynonymSynonym GetBack NoResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym While FollowsStar SynonymSynonym Same NoResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt SuchThat FollowsStar IntInt and FollowsStar IntInt HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt SuchThat FollowsStar IntInt SuchThat FollowsStar IntInt HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt FollowsStar IntUnderscore And FollowsStar IntUnderscore HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt FollowsStar IntSynonym And FollowsStar IntSynonym BothRelationSameSynonym NoResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt FollowsStar IntSynonym And FollowsStar IntSynonym BothRelationDiffSynonym HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt FollowsStar IntSynonym And FollowsStar IntSynonym GetFront HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt FollowsStar IntSynonym And FollowsStar IntSynonym GetBack HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt FollowsStar UnderscoreInt And FollowsStar UnderscoreInt HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt FollowsStar UnderscoreInt And FollowsStar UnderscoreInt NoResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt FollowsStar UnderscoreUnderscore And FollowsStar UnderscoreUnderscore HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt FollowsStar UnderscoreSynonym And FollowsStar UnderscoreSynonym CommonSynonym HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt FollowsStar UnderscoreSynonym And FollowsStar UnderscoreSynonym UniqueSynonym HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt FollowsStar UnderscoreSynonym And FollowsStar UnderscoreSynonym GetFront HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt FollowsStar UnderscoreSynonym And FollowsStar UnderscoreSynonym GetBack HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt FollowsStar SynonymInt And FollowsStar SynonymInt BothRelation SameSynonym NoResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt FollowsStar SynonymInt And FollowsStar SynonymInt GetFront HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt FollowsStar SynonymInt And FollowsStar SynonymInt GetBack HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt FollowsStar SynonymUnderscore And FollowsStar SynonymUnderscore GetFront HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt FollowsStar SynonymUnderscore And FollowsStar SynonymUnderscore GetBack HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt FollowsStar SynonymSynonym And FollowsStar SynonymSynonym Chain GetFirst HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt FollowsStar SynonymSynonym And FollowsStar SynonymSynonym Chain GetMiddle HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt FollowsStar SynonymSynonym And FollowsStar SynonymSynonym Chain GetLast HaveResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt FollowsStar SynonymSynonym And FollowsStar SynonymSynonym Chain s3ShldNotFollowTwice NoResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt FollowsStar SynonymSynonym And FollowsStar SynonymSynonym Chain s1ShldNotHaveTwoFollowers NoResult</t>
+  </si>
+  <si>
+    <t>Select s such that Follows*(1, 8)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt FollowsStar IntInt HaveResult</t>
+  </si>
+  <si>
+    <t>Select s such that Follows*(1, 4)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt FollowsStarIntInt NotSameStmtLst NoResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Variable FollowsStar IntInt NotSameStmtLst NoResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Assign FollowsStar IntInt NotSameStmtList NoResult</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym While FollowsStar IntInt NotSameStmtList NoResult</t>
+  </si>
+  <si>
+    <t>2,3,8</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>2,8</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>3,8</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -896,35 +1422,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1205,497 +1719,497 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3B02F3-8668-4835-B18A-9EFEA275CE21}">
-  <dimension ref="A1:E122"/>
+  <dimension ref="A1:E211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C118" sqref="C118"/>
+    <sheetView tabSelected="1" topLeftCell="B124" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="76.85546875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="39.7109375" style="13" customWidth="1"/>
-    <col min="5" max="5" width="35.85546875" style="11" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="76.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="39.7109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="128" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="3" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="3" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="6">
         <v>3</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="3" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="3" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
-        <v>5</v>
-      </c>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="11" t="s">
+      <c r="D6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="11" t="s">
+      <c r="D7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="11" t="s">
+      <c r="D8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="11" t="s">
+      <c r="D9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="3" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="11" t="s">
+      <c r="D11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="11" t="s">
+      <c r="D12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="11" t="s">
+      <c r="D13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="11" t="s">
+      <c r="B14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="11" t="s">
+      <c r="D14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="11" t="s">
+      <c r="B15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="11" t="s">
+      <c r="D15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="11" t="s">
+      <c r="B16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="3" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="11" t="s">
+      <c r="B17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="3" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="11" t="s">
+      <c r="B18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="3" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D19" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="E19" s="11" t="s">
+      <c r="D19" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="11" t="s">
+      <c r="B20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D20" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="E20" s="11" t="s">
+      <c r="D20" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D21" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="E21" s="11" t="s">
+      <c r="D21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
+      <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="B22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="B23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="1" t="s">
+      <c r="D23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
+      <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="4" t="s">
+      <c r="B24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="4" t="s">
+      <c r="D24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
+      <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="4" t="s">
+      <c r="B25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="4" t="s">
+      <c r="D25" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="12">
+      <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="4" t="s">
+      <c r="B26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" s="4" t="s">
+      <c r="D26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="12">
+      <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="4" t="s">
+      <c r="B27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="4" t="s">
+      <c r="D27" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="12">
+      <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="4" t="s">
+      <c r="B28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="4" t="s">
+      <c r="D28" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="12">
+      <c r="A29" s="4">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -1704,7 +2218,7 @@
       <c r="C29" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E29" s="3" t="s">
@@ -1712,7 +2226,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="12">
+      <c r="A30" s="4">
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -1721,7 +2235,7 @@
       <c r="C30" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="7" t="s">
         <v>34</v>
       </c>
       <c r="E30" s="3" t="s">
@@ -1729,7 +2243,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="12">
+      <c r="A31" s="4">
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -1738,7 +2252,7 @@
       <c r="C31" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="7" t="s">
         <v>34</v>
       </c>
       <c r="E31" s="3" t="s">
@@ -1746,41 +2260,41 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="12">
+      <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="3" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="12">
+      <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="6" t="s">
+      <c r="B33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="6" t="s">
+      <c r="D33" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="12">
+      <c r="A34" s="4">
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -1789,1507 +2303,3020 @@
       <c r="C34" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E34" s="6" t="s">
+      <c r="D34" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="12">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="12">
+      <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="B36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="6">
         <v>2</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="12">
+      <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="B37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="6">
         <v>8</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="12">
+      <c r="A38" s="4">
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="B38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="12">
+      <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="1" t="s">
+      <c r="B39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E39" s="1" t="s">
+      <c r="D39" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="12">
+      <c r="A40" s="4">
         <v>39</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="1" t="s">
+      <c r="B40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="12">
+      <c r="A41" s="4">
         <v>40</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="B41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="12">
+      <c r="A42" s="4">
         <v>41</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="3" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="12">
+      <c r="A43" s="4">
         <v>42</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="B43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="6">
         <v>1</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="12">
+      <c r="A44" s="4">
         <v>43</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="1" t="s">
+      <c r="B44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E44" s="1" t="s">
+      <c r="D44" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="12">
+      <c r="A45" s="4">
         <v>44</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="1" t="s">
+      <c r="B45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="6">
         <v>3</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="12">
+      <c r="A46" s="4">
         <v>45</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" s="1" t="s">
+      <c r="B46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="12">
+      <c r="A47" s="4">
         <v>46</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="12">
+      <c r="A48" s="4">
         <v>47</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="12">
+      <c r="A49" s="4">
         <v>48</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="1" t="s">
+      <c r="B49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E49" s="4" t="s">
+      <c r="D49" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="12">
+      <c r="A50" s="4">
         <v>49</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="12">
+      <c r="A51" s="4">
         <v>50</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E51" s="1" t="s">
+      <c r="D51" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="12">
+      <c r="A52" s="4">
         <v>51</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="12">
+      <c r="A53" s="4">
         <v>52</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="12">
+      <c r="A54" s="4">
         <v>53</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="12">
+      <c r="A55" s="4">
         <v>54</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D55" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="12">
+      <c r="A56" s="4">
         <v>55</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E56" s="1" t="s">
+      <c r="D56" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E56" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="12">
+      <c r="A57" s="4">
         <v>56</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="12">
+      <c r="A58" s="4">
         <v>57</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="12">
+      <c r="A59" s="4">
         <v>58</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E59" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="12">
+      <c r="A60" s="4">
         <v>59</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E60" s="1" t="s">
+      <c r="D60" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="12">
+      <c r="A61" s="4">
         <v>60</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="12">
+      <c r="A62" s="4">
         <v>61</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="12">
+      <c r="A63" s="4">
         <v>62</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E63" s="1" t="s">
+      <c r="D63" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E63" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="12">
+      <c r="A64" s="4">
         <v>63</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E64" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="12">
+      <c r="A65" s="4">
         <v>64</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E65" s="1" t="s">
+      <c r="D65" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E65" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="12">
+      <c r="A66" s="4">
         <v>65</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D66" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E66" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="12">
+      <c r="A67" s="4">
         <v>66</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67" s="6">
         <v>2</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E67" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="12">
+      <c r="A68" s="4">
         <v>67</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68" s="6">
         <v>8</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E68" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="12">
+      <c r="A69" s="4">
         <v>68</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D69" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E69" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="12">
+      <c r="A70" s="4">
         <v>69</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E70" s="1" t="s">
+      <c r="D70" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E70" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="12">
+      <c r="A71" s="4">
         <v>70</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E71" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="12">
+      <c r="A72" s="4">
         <v>71</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D72" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E72" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="12">
+      <c r="A73" s="4">
         <v>72</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D73" s="6">
         <v>1</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E73" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="12">
+      <c r="A74" s="4">
         <v>73</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E74" s="1" t="s">
+      <c r="D74" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E74" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="12">
+      <c r="A75" s="4">
         <v>74</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E75" s="1" t="s">
+      <c r="D75" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E75" s="3" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="12">
+      <c r="A76" s="4">
         <v>75</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D76" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E76" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="12">
+      <c r="A77" s="4">
         <v>76</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D77" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E77" s="3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="12">
+      <c r="A78" s="4">
         <v>77</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D78" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="E78" s="3" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="12">
+      <c r="A79" s="4">
         <v>78</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E79" s="4" t="s">
+      <c r="D79" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E79" s="3" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="12">
+      <c r="A80" s="4">
         <v>79</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D80" s="2">
+      <c r="D80" s="6">
         <v>3</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="E80" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="12">
+      <c r="A81" s="4">
         <v>80</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E81" s="1" t="s">
+      <c r="D81" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E81" s="3" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="12">
+      <c r="A82" s="4">
         <v>81</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D82" s="2">
+      <c r="D82" s="6">
         <v>3</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="E82" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="12">
+      <c r="A83" s="4">
         <v>82</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D83" s="2">
+      <c r="D83" s="6">
         <v>3</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="E83" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="12">
+      <c r="A84" s="4">
         <v>83</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E84" s="1" t="s">
+      <c r="D84" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E84" s="3" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="12">
+      <c r="A85" s="4">
         <v>84</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D85" s="2">
+      <c r="D85" s="6">
         <v>3</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="E85" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="12">
+      <c r="A86" s="4">
         <v>85</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D86" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E86" s="1" t="s">
+      <c r="D86" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E86" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="12">
+      <c r="A87" s="4">
         <v>86</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D87" s="2">
+      <c r="D87" s="6">
         <v>3</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="E87" s="3" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="12">
+      <c r="A88" s="4">
         <v>87</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D88" s="2">
+      <c r="D88" s="6">
         <v>3</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="E88" s="3" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="12">
+      <c r="A89" s="4">
         <v>88</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D89" s="2">
+      <c r="D89" s="6">
         <v>3</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E89" s="3" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="12">
+      <c r="A90" s="4">
         <v>89</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D90" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E90" s="1" t="s">
+      <c r="D90" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E90" s="3" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="12">
+      <c r="A91" s="4">
         <v>90</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D91" s="2">
+      <c r="D91" s="6">
         <v>3</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="E91" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="12">
+      <c r="A92" s="4">
         <v>91</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D92" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E92" s="1" t="s">
+      <c r="D92" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E92" s="3" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="12">
+      <c r="A93" s="4">
         <v>92</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D93" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E93" s="1" t="s">
+      <c r="D93" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E93" s="3" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="12">
+      <c r="A94" s="4">
         <v>93</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D94" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E94" s="4" t="s">
+      <c r="D94" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E94" s="3" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="12">
+      <c r="A95" s="4">
         <v>94</v>
       </c>
-      <c r="B95" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C95" s="4" t="s">
+      <c r="B95" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D95" s="7" t="s">
+      <c r="D95" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E95" s="4" t="s">
+      <c r="E95" s="3" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="12">
+      <c r="A96" s="4">
         <v>95</v>
       </c>
-      <c r="B96" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C96" s="4" t="s">
+      <c r="B96" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D96" s="7" t="s">
+      <c r="D96" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E96" s="4" t="s">
+      <c r="E96" s="3" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="12">
+      <c r="A97" s="4">
         <v>96</v>
       </c>
-      <c r="B97" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C97" s="6" t="s">
+      <c r="B97" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D97" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E97" s="6" t="s">
+      <c r="D97" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E97" s="3" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="12">
+      <c r="A98" s="4">
         <v>97</v>
       </c>
-      <c r="B98" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C98" s="4" t="s">
+      <c r="B98" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="D98" s="7" t="s">
+      <c r="D98" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E98" s="4" t="s">
+      <c r="E98" s="3" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="12">
+      <c r="A99" s="4">
         <v>98</v>
       </c>
-      <c r="B99" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C99" s="6" t="s">
+      <c r="B99" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D99" s="7" t="s">
+      <c r="D99" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E99" s="6" t="s">
+      <c r="E99" s="3" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="12">
+      <c r="A100" s="4">
         <v>99</v>
       </c>
-      <c r="B100" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C100" s="6" t="s">
+      <c r="B100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D100" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E100" s="6" t="s">
+      <c r="D100" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E100" s="3" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="12">
+      <c r="A101" s="4">
         <v>100</v>
       </c>
-      <c r="B101" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C101" s="6" t="s">
+      <c r="B101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D101" s="7" t="s">
+      <c r="D101" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E101" s="6" t="s">
+      <c r="E101" s="3" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="12">
+      <c r="A102" s="4">
         <v>101</v>
       </c>
-      <c r="B102" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C102" s="6" t="s">
+      <c r="B102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="D102" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E102" s="6" t="s">
+      <c r="D102" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E102" s="3" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="12">
+      <c r="A103" s="4">
         <v>102</v>
       </c>
-      <c r="B103" s="6" t="s">
+      <c r="B103" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C103" s="6" t="s">
+      <c r="C103" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="D103" s="7" t="s">
+      <c r="D103" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E103" s="6" t="s">
+      <c r="E103" s="3" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="12">
+      <c r="A104" s="4">
         <v>103</v>
       </c>
-      <c r="B104" s="6" t="s">
+      <c r="B104" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C104" s="6" t="s">
+      <c r="C104" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D104" s="2">
+      <c r="D104" s="6">
         <v>2</v>
       </c>
-      <c r="E104" s="6" t="s">
+      <c r="E104" s="3" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="12">
+      <c r="A105" s="4">
         <v>104</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="B105" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C105" s="6" t="s">
+      <c r="C105" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="D105" s="2">
+      <c r="D105" s="6">
         <v>3</v>
       </c>
-      <c r="E105" s="6" t="s">
+      <c r="E105" s="3" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="12">
+      <c r="A106" s="4">
         <v>105</v>
       </c>
-      <c r="B106" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C106" s="6" t="s">
+      <c r="B106" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D106" s="7" t="s">
+      <c r="D106" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E106" s="6" t="s">
+      <c r="E106" s="3" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="12">
+      <c r="A107" s="4">
         <v>106</v>
       </c>
-      <c r="B107" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C107" s="6" t="s">
+      <c r="B107" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="D107" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E107" s="6" t="s">
+      <c r="D107" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E107" s="3" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="12">
+      <c r="A108" s="4">
         <v>107</v>
       </c>
-      <c r="B108" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C108" s="6" t="s">
+      <c r="B108" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="D108" s="7" t="s">
+      <c r="D108" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E108" s="6" t="s">
+      <c r="E108" s="3" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="12">
+      <c r="A109" s="4">
         <v>108</v>
       </c>
-      <c r="B109" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C109" s="6" t="s">
+      <c r="B109" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D109" s="7" t="s">
+      <c r="D109" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E109" s="6" t="s">
+      <c r="E109" s="3" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="12">
+      <c r="A110" s="4">
         <v>109</v>
       </c>
-      <c r="B110" s="6" t="s">
+      <c r="B110" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C110" s="6" t="s">
+      <c r="C110" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="D110" s="7" t="s">
+      <c r="D110" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E110" s="6" t="s">
+      <c r="E110" s="3" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="12">
+      <c r="A111" s="4">
         <v>110</v>
       </c>
-      <c r="B111" s="6" t="s">
+      <c r="B111" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C111" s="6" t="s">
+      <c r="C111" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D111" s="7" t="s">
+      <c r="D111" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E111" s="6" t="s">
+      <c r="E111" s="3" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="12">
+      <c r="A112" s="4">
         <v>111</v>
       </c>
-      <c r="B112" s="6" t="s">
+      <c r="B112" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C112" s="6" t="s">
+      <c r="C112" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="D112" s="7" t="s">
+      <c r="D112" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E112" s="6" t="s">
+      <c r="E112" s="3" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="12">
+      <c r="A113" s="4">
         <v>112</v>
       </c>
-      <c r="B113" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C113" s="6" t="s">
+      <c r="B113" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="D113" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E113" s="6" t="s">
+      <c r="D113" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E113" s="3" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="12">
+      <c r="A114" s="4">
         <v>113</v>
       </c>
-      <c r="B114" s="6" t="s">
+      <c r="B114" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C114" s="6" t="s">
+      <c r="C114" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="D114" s="2">
+      <c r="D114" s="6">
         <v>1</v>
       </c>
-      <c r="E114" s="6" t="s">
+      <c r="E114" s="3" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="12">
+      <c r="A115" s="4">
         <v>114</v>
       </c>
-      <c r="B115" s="6" t="s">
+      <c r="B115" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C115" s="6" t="s">
+      <c r="C115" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="D115" s="2">
+      <c r="D115" s="6">
         <v>2</v>
       </c>
-      <c r="E115" s="6" t="s">
+      <c r="E115" s="3" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="12">
+      <c r="A116" s="4">
         <v>115</v>
       </c>
-      <c r="B116" s="6" t="s">
+      <c r="B116" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C116" s="6" t="s">
+      <c r="C116" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D116" s="7" t="s">
+      <c r="D116" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E116" s="6" t="s">
+      <c r="E116" s="3" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="12">
+      <c r="A117" s="4">
         <v>116</v>
       </c>
-      <c r="B117" s="6" t="s">
+      <c r="B117" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C117" s="6" t="s">
+      <c r="C117" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="D117" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E117" s="6" t="s">
+      <c r="E117" s="3" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="12">
+      <c r="A118" s="4">
         <v>117</v>
       </c>
-      <c r="B118" s="6" t="s">
+      <c r="B118" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C118" s="6" t="s">
+      <c r="C118" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="D118" s="2" t="s">
+      <c r="D118" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="E118" s="6" t="s">
+      <c r="E118" s="3" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="12">
+      <c r="A119" s="4">
         <v>118</v>
       </c>
-      <c r="B119" s="6" t="s">
+      <c r="B119" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C119" s="6" t="s">
+      <c r="C119" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="D119" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="E119" s="6" t="s">
+      <c r="E119" s="3" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="12">
+      <c r="A120" s="4">
         <v>119</v>
       </c>
-      <c r="B120" s="6" t="s">
+      <c r="B120" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C120" s="6" t="s">
+      <c r="C120" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D120" s="2" t="s">
+      <c r="D120" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="E120" s="6" t="s">
+      <c r="E120" s="3" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="12">
+      <c r="A121" s="4">
         <v>120</v>
       </c>
-      <c r="B121" s="6" t="s">
+      <c r="B121" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C121" s="6" t="s">
+      <c r="C121" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="D121" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E121" s="6" t="s">
+      <c r="D121" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E121" s="3" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="12">
+      <c r="A122" s="4">
         <v>121</v>
       </c>
-      <c r="B122" s="6" t="s">
+      <c r="B122" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C122" s="6" t="s">
+      <c r="C122" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="D122" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E122" s="6" t="s">
+      <c r="D122" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E122" s="3" t="s">
         <v>257</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="4">
+        <v>122</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="4">
+        <v>123</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="4">
+        <v>124</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="4">
+        <v>125</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="4">
+        <v>126</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D127" s="6">
+        <v>8</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="4">
+        <v>127</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="4">
+        <v>128</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="4">
+        <v>129</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="4">
+        <v>130</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="4">
+        <v>131</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D132" s="6">
+        <v>1</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="4">
+        <v>132</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="4">
+        <v>133</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="4">
+        <v>134</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="4">
+        <v>135</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="4">
+        <v>136</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="4">
+        <v>137</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="4">
+        <v>138</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="4">
+        <v>139</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="4">
+        <v>140</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="4">
+        <v>141</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="4">
+        <v>142</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="4">
+        <v>143</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="4">
+        <v>144</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="4">
+        <v>145</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="4">
+        <v>146</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="4">
+        <v>147</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D148" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="4">
+        <v>148</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="4">
+        <v>149</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="4">
+        <v>150</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="4">
+        <v>151</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="4">
+        <v>152</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="4">
+        <v>153</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D154" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="4">
+        <v>154</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D155" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="4">
+        <v>155</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="4">
+        <v>156</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D157" s="6">
+        <v>8</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="4">
+        <v>157</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="4">
+        <v>158</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="4">
+        <v>159</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D160" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="4">
+        <v>160</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="4">
+        <v>161</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D162" s="6">
+        <v>1</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="4">
+        <v>162</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="4">
+        <v>163</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="4">
+        <v>164</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="4">
+        <v>165</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D166" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="4">
+        <v>166</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="4">
+        <v>167</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="4">
+        <v>168</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="D169" s="6">
+        <v>3</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="4">
+        <v>169</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D170" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="4">
+        <v>170</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D171" s="6">
+        <v>3</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="4">
+        <v>171</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D172" s="6">
+        <v>3</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="4">
+        <v>172</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="4">
+        <v>173</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D174" s="6">
+        <v>3</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="4">
+        <v>174</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D175" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="4">
+        <v>175</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D176" s="6">
+        <v>3</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="4">
+        <v>176</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D177" s="6">
+        <v>3</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="4">
+        <v>177</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D178" s="6">
+        <v>3</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="4">
+        <v>178</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D179" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="4">
+        <v>179</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="D180" s="6">
+        <v>3</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="4">
+        <v>180</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D181" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="4">
+        <v>181</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D182" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="4">
+        <v>182</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D183" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="4">
+        <v>183</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D184" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="4">
+        <v>184</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D185" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="4">
+        <v>185</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D186" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="4">
+        <v>186</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D187" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="4">
+        <v>187</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D188" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="4">
+        <v>188</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D189" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="4">
+        <v>189</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D190" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="4">
+        <v>190</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D191" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="4">
+        <v>191</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="D192" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="4">
+        <v>192</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D193" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="4">
+        <v>193</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="D194" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="4">
+        <v>194</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="D195" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="4">
+        <v>195</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D196" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="4">
+        <v>196</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="D197" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="4">
+        <v>197</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D198" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="4">
+        <v>198</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D199" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="4">
+        <v>199</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D200" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="4">
+        <v>200</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="D201" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="4">
+        <v>201</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D202" s="6">
+        <v>1</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="4">
+        <v>202</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="D203" s="6">
+        <v>1</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="4">
+        <v>203</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D204" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="4">
+        <v>204</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D205" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="4">
+        <v>205</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="D206" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="4">
+        <v>206</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D207" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="4">
+        <v>207</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="D208" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="4">
+        <v>208</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="D209" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" s="4">
+        <v>209</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="D210" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" s="4">
+        <v>210</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="D211" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>437</v>
       </c>
     </row>
   </sheetData>

--- a/AutomaticProjectTesting_Aug2015_VS2015/EmptyGeneralTesting/Release/Test1/QuerySet1.xlsx
+++ b/AutomaticProjectTesting_Aug2015_VS2015/EmptyGeneralTesting/Release/Test1/QuerySet1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="603">
   <si>
     <t>Index</t>
   </si>
@@ -1372,6 +1372,462 @@
   </si>
   <si>
     <t>true</t>
+  </si>
+  <si>
+    <t>Select s such that Parent(1, 2)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Parent IntInt NoWhile NoResult</t>
+  </si>
+  <si>
+    <t>Select s such that Parent(2, 5)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Parent IntInt OneOutsideWhile OneInsideWhileNoResult</t>
+  </si>
+  <si>
+    <t>Select s such that Parent(3, 4)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Parent IntInt HaveResult</t>
+  </si>
+  <si>
+    <t>Select s such that Parent(2, 1)</t>
+  </si>
+  <si>
+    <t>Parent IntInt 2nd Arg &gt; 1st Arg NoResult</t>
+  </si>
+  <si>
+    <t>Select s such that Parent(2, 2)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Parent IntInt SameInt NoResult</t>
+  </si>
+  <si>
+    <t>Select s such that Parent(1)</t>
+  </si>
+  <si>
+    <t>Parent LackOf Arguments NoResult</t>
+  </si>
+  <si>
+    <t>Select s such that Parent(1, 2, 3)</t>
+  </si>
+  <si>
+    <t>Parent Excessive Arguments NoResult</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Select s such that Parent ( 1 , 2 )</t>
+  </si>
+  <si>
+    <t>Select s suchthat Parent(1, 2)</t>
+  </si>
+  <si>
+    <t>Select s such         that Parent(1, 2)</t>
+  </si>
+  <si>
+    <t>stmt Parent;</t>
+  </si>
+  <si>
+    <t>Select Parent such that Parent(1, 2)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Parent IntInt ParentKeywordAsSynonym HaveResult</t>
+  </si>
+  <si>
+    <t>Select s Parent(1, 2)</t>
+  </si>
+  <si>
+    <t>Parent (1, 2)</t>
+  </si>
+  <si>
+    <t>Select s such that Parent(1, _)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym stmt Parent IntUnderscore NoResult</t>
+  </si>
+  <si>
+    <t>Select s such that Parent(3, _)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Parent IntUnderscore HaveResult</t>
+  </si>
+  <si>
+    <t>Select s such that Parent(4, s)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Parent IntSynonym NoResult</t>
+  </si>
+  <si>
+    <t>Select s such that Parent(3, s)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Parent IntSynonym HaveResult</t>
+  </si>
+  <si>
+    <t>Select s such that Parent(_, 5)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Parent UnderscoreInt HaveResult</t>
+  </si>
+  <si>
+    <t>Select s such that Parent(_, 1)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Parent UnderscoreInt NoResult</t>
+  </si>
+  <si>
+    <t>Select s such that Parent(_, _)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Parent UnderscoreUnderscore HaveResult</t>
+  </si>
+  <si>
+    <t>Select s such that Parent(_, s)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Parent UnderscoreSynonym HaveResult</t>
+  </si>
+  <si>
+    <t>stmt s, Parent;</t>
+  </si>
+  <si>
+    <t>Select s such that Parent(Parent, 5)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Parent SynonymInt ParentKeywordAsSynontm As RelationArg HaveResult</t>
+  </si>
+  <si>
+    <t>Select s such that Parent(s, 4)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Parent SynonymInt HaveResult</t>
+  </si>
+  <si>
+    <t>Select s such that Parent(s, 1)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Parent SynonymInt NoResult</t>
+  </si>
+  <si>
+    <t>Select s such that Parent(s, _)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Parent SynonymUnderscore HaveResult</t>
+  </si>
+  <si>
+    <t>Select s1 such that Parent(s1, s2)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Parent SynonymSynonym GetFront HaveResult</t>
+  </si>
+  <si>
+    <t>Select s2 such that Parent(s1, s2)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Parent SynonymSynonym GetBack HaveResult</t>
+  </si>
+  <si>
+    <t>Select s such that Parent(s, s)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Parent SynonymSynonym Same NoResult</t>
+  </si>
+  <si>
+    <t>Select v such that Parent(3, 4)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Variable Parent IntInt HaveResult</t>
+  </si>
+  <si>
+    <t>Select v such that Parent(1, 2)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Variable Parent IntInt NoResult</t>
+  </si>
+  <si>
+    <t>Select v such that Parent(3, _)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Variable Parent IntUnderscore HaveResult</t>
+  </si>
+  <si>
+    <t>Select v such that Parent(3, s)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Variable Parent IntSynonym HaveResult</t>
+  </si>
+  <si>
+    <t>Select v such that Parent(_, 5)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Variable Parent UnderscoreInt HaveResult</t>
+  </si>
+  <si>
+    <t>Select v such that Parent(_, 3)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Variable Parent UnderscoreInt NoResult</t>
+  </si>
+  <si>
+    <t>Select v such that Parent(_, _)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Variable Parent UnderscoreUnderscore HaveResult</t>
+  </si>
+  <si>
+    <t>Select v such that Parent(_, s)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Variable Parent UnderscoreSynonym HaveResult</t>
+  </si>
+  <si>
+    <t>Select v such that Parent(s, 7)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Variable Parent SynonymInt HaveResult</t>
+  </si>
+  <si>
+    <t>Select v such that Parent(s, 1)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Variable Parent SynonymInt NoResult</t>
+  </si>
+  <si>
+    <t>Select v such that Parent(s, _)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Variable Parent SynonymUnderscore HaveResult</t>
+  </si>
+  <si>
+    <t>Select v such that Parent(v, s)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Variable Parent Illegal Argument NoResult</t>
+  </si>
+  <si>
+    <t>Select a such that Parent(3, 5)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Assign Parent IntInt HaveResult</t>
+  </si>
+  <si>
+    <t>Select a such that Parent(_, a)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Assign Parent UnderscoreSynonym HaveResult</t>
+  </si>
+  <si>
+    <t>Select a such that Parent(a, 1)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Assign Parent SynonymInt NoResult</t>
+  </si>
+  <si>
+    <t>Select a such that Parent(a, _)</t>
+  </si>
+  <si>
+    <t>Select a1 such that Parent(a1, a2)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Assign Parent SynonymSynonym FirstArgCannotBeAssign NoResult</t>
+  </si>
+  <si>
+    <t>Select a such that Parent(a, a)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Assign Parent SynonymSynonym Same NoResult</t>
+  </si>
+  <si>
+    <t>Select w such that Parent(1, 2)</t>
+  </si>
+  <si>
+    <t>Select w such that Parent(3, 4)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym While Parent IntInt NoResult</t>
+  </si>
+  <si>
+    <t>Select w such that Parent(1, _)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym While Parent IntUnderscore HaveResult</t>
+  </si>
+  <si>
+    <t>Select w such that Parent(_, w)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym While Parent UnderscoreSynonym NoParentOfWhile NoResult</t>
+  </si>
+  <si>
+    <t>Select w such that Parent(w, 6)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym While Parent SynonymInt HaveResult</t>
+  </si>
+  <si>
+    <t>Select w such that Parent(w, 1)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym While Parent SynonymInt NoResult</t>
+  </si>
+  <si>
+    <t>Select w such that Parent(w, _)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym While Parent SynonymUnderscore HaveResult</t>
+  </si>
+  <si>
+    <t>Select w1 such that Parent(w1, w2)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym While Parent SynonymSynonym NoParentOfWhile NoResult</t>
+  </si>
+  <si>
+    <t>Select w such that Parent(w, w)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym While Parent SynonymSynonym Same NoResult</t>
+  </si>
+  <si>
+    <t>Select s such that Parent(3, 4) and Parent(3, 6)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt SuchThat Parent IntInt and Parent IntInt HaveResult</t>
+  </si>
+  <si>
+    <t>Select s such that Parent(3, 4)and Parent(3, 6)</t>
+  </si>
+  <si>
+    <t>Select s such that Parent(3, 4) andParent(3, 6)</t>
+  </si>
+  <si>
+    <t>Select s such that Parent(3, 4) such that Parent(3, 6)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt SuchThat Parent IntInt SuchThat Parent IntInt HaveResult</t>
+  </si>
+  <si>
+    <t>Select s such that Parent(3, 4)such that Parent(3, 6)</t>
+  </si>
+  <si>
+    <t>Select s such that Parent(3, 4) such thatParent(3, 6)</t>
+  </si>
+  <si>
+    <t>Select s such that Parent(3, _) and Parent(3, _)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Parent IntUnderscore And Parent IntUnderscore HaveResult</t>
+  </si>
+  <si>
+    <t>Select s such that Parent(1, s) and Parent(2, s)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Parent IntSynonym And Parent IntSynonym BothRelationSameSynonym NoResult</t>
+  </si>
+  <si>
+    <t>Select s1 such that Parent(1, s2) and Parent(2, s3)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Parent IntSynonym And Parent IntSynonym BothRelationDiffSynonym HaveResult</t>
+  </si>
+  <si>
+    <t>Select s1 such that Parent(3, s1) and Parent(3, s2)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Parent IntSynonym And Parent IntSynonym GetFront HaveResult</t>
+  </si>
+  <si>
+    <t>Select s such that Parent(_, 4) and Parent(_, 5)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Parent UnderscoreInt And Parent UnderscoreInt HaveResult</t>
+  </si>
+  <si>
+    <t>Select s such that Parent(_, 2) and Parent(_, 4)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Parent UnderscoreInt And Parent UnderscoreInt 1stResult 2ndNoResult NoResult</t>
+  </si>
+  <si>
+    <t>Select s such that Parent(_, _) and Parent(_, _)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Parent UnderscoreUnderscore And Parent UnderscoreUnderscore HaveResult</t>
+  </si>
+  <si>
+    <t>Select s such that Parent(_, s) and Parent(_, s)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Parent UnderscoreSynonym And Parent UnderscoreSynonym CommonSynonym HaveResult</t>
+  </si>
+  <si>
+    <t>Select s1 such that Parent(_, s2) and Parent(_, s3)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Parent UnderscoreSynonym And Parent UnderscoreSynonym UniqueSynonym HaveResult</t>
+  </si>
+  <si>
+    <t>Select s1 such that Parent(_, s1) and Parent(_, s2)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Parent UnderscoreSynonym And Parent UnderscoreSynonym GetFront HaveResult</t>
+  </si>
+  <si>
+    <t>Select s such that Parent(s, 4) and Parent(s, 5)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Parent SynonymInt And Parent SynonymInt BothRelation SameSynonym HaveResult</t>
+  </si>
+  <si>
+    <t>Select s1 such that Parent(s1, 4) and Parent(s2, 6)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Parent SynonymInt And Parent SynonymInt GetFront HaveResult</t>
+  </si>
+  <si>
+    <t>Select s1 such that Parent(s1, _) and Parent(s2, _)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Parent SynonymUnderscore And Parent SynonymUnderscore GetFront HaveResult</t>
+  </si>
+  <si>
+    <t>Select s1 such that Parent(s1, s2) and Parent(s2, s3)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Parent SynonymSynonym And Parent SynonymSynonym Chain GetFirst HaveResult</t>
+  </si>
+  <si>
+    <t>Select s2 such that Parent(s1, s2) and Parent(s2, s3)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Parent SynonymSynonym And Parent SynonymSynonym Chain GetMiddle HaveResult</t>
+  </si>
+  <si>
+    <t>Select s3 such that Parent(s1, s2) and Parent(s2, s3)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Parent SynonymSynonym And Parent SynonymSynonym Chain GetLast HaveResult</t>
+  </si>
+  <si>
+    <t>Select s1 such that Parent(s1, s3) and Parent(s2, s3)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Parent SynonymSynonym And Parent SynonymSynonym Chain Same2ndArg HaveResult</t>
+  </si>
+  <si>
+    <t>Select s1 such that Parent(s1, s2) and Parent(s1, s3)</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Stmt Parent SynonymSynonym And Parent SynonymSynonym Chain Same1stArg HaveResult</t>
+  </si>
+  <si>
+    <t>Tab within Parent Keyword HaveResult</t>
+  </si>
+  <si>
+    <t>4,5,6,7</t>
+  </si>
+  <si>
+    <t>Select SingleSynonym Assign Parent SynonymUnderscore NoResult</t>
   </si>
 </sst>
 </file>
@@ -1422,23 +1878,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1719,20 +2178,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3B02F3-8668-4835-B18A-9EFEA275CE21}">
-  <dimension ref="A1:E211"/>
+  <dimension ref="A1:E290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B124" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="D273" workbookViewId="0">
+      <selection activeCell="D292" sqref="D292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="76.85546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="76.85546875" style="4" customWidth="1"/>
     <col min="4" max="4" width="39.7109375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="128" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="3"/>
+    <col min="5" max="5" width="128" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1745,7 +2204,7 @@
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -1753,3570 +2212,4913 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="6">
         <v>3</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>165</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>161</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>193</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>191</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>195</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>185</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="4" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>163</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="4" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>175</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="4" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>150</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="4" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>151</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="4" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>203</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="4" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="4" t="s">
         <v>261</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="4" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="B20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>261</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="4" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>261</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="4" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="B22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="B23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="B24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>158</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="4" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+      <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="B25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>178</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="4" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+      <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="3" t="s">
+      <c r="B26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="4" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+      <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="3" t="s">
+      <c r="B27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>180</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="4" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+      <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="3" t="s">
+      <c r="B28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>176</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="4" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+      <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="3" t="s">
+      <c r="B29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>171</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="4" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+      <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="3" t="s">
+      <c r="B30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>167</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="4" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+      <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="3" t="s">
+      <c r="B31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>168</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="4" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+      <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="4" t="s">
         <v>198</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="4" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+      <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="3" t="s">
+      <c r="B33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>196</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="4" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+      <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="3" t="s">
+      <c r="B34" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>187</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="4" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
-        <v>34</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="3" t="s">
+      <c r="A35" s="5">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
+      <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="3" t="s">
+      <c r="B36" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D36" s="6">
         <v>2</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
+      <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="3" t="s">
+      <c r="B37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D37" s="6">
         <v>8</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
+      <c r="A38" s="5">
         <v>37</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="3" t="s">
+      <c r="B38" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
+      <c r="A39" s="5">
         <v>38</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="3" t="s">
+      <c r="B39" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
+      <c r="A40" s="5">
         <v>39</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="3" t="s">
+      <c r="B40" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
+      <c r="A41" s="5">
         <v>40</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="3" t="s">
+      <c r="B41" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
+      <c r="A42" s="5">
         <v>41</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="4" t="s">
         <v>201</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="4" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
+      <c r="A43" s="5">
         <v>42</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="3" t="s">
+      <c r="B43" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D43" s="6">
         <v>1</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
+      <c r="A44" s="5">
         <v>43</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="3" t="s">
+      <c r="B44" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
+      <c r="A45" s="5">
         <v>44</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="3" t="s">
+      <c r="B45" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D45" s="6">
         <v>3</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
+      <c r="A46" s="5">
         <v>45</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" s="3" t="s">
+      <c r="B46" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
+      <c r="A47" s="5">
         <v>46</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
+      <c r="A48" s="5">
         <v>47</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
+      <c r="A49" s="5">
         <v>48</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="3" t="s">
+      <c r="B49" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="4" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
+      <c r="A50" s="5">
         <v>49</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
+      <c r="A51" s="5">
         <v>50</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E51" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
+      <c r="A52" s="5">
         <v>51</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E52" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
+      <c r="A53" s="5">
         <v>52</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
+      <c r="A54" s="5">
         <v>53</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E54" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
+      <c r="A55" s="5">
         <v>54</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E55" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="4">
+      <c r="A56" s="5">
         <v>55</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="4" t="s">
         <v>43</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E56" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
+      <c r="A57" s="5">
         <v>56</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E57" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="4">
+      <c r="A58" s="5">
         <v>57</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E58" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
+      <c r="A59" s="5">
         <v>58</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="E59" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="4">
+      <c r="A60" s="5">
         <v>59</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E60" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="4">
+      <c r="A61" s="5">
         <v>60</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E61" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="4">
+      <c r="A62" s="5">
         <v>61</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E62" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="4">
+      <c r="A63" s="5">
         <v>62</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="E63" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="4">
+      <c r="A64" s="5">
         <v>63</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="4" t="s">
         <v>121</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E64" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="4">
+      <c r="A65" s="5">
         <v>64</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="4" t="s">
         <v>122</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="E65" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="4">
+      <c r="A66" s="5">
         <v>65</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="4" t="s">
         <v>123</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="E66" s="4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="4">
+      <c r="A67" s="5">
         <v>66</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="4" t="s">
         <v>124</v>
       </c>
       <c r="D67" s="6">
         <v>2</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="E67" s="4" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="4">
+      <c r="A68" s="5">
         <v>67</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="4" t="s">
         <v>125</v>
       </c>
       <c r="D68" s="6">
         <v>8</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E68" s="4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="4">
+      <c r="A69" s="5">
         <v>68</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="4" t="s">
         <v>126</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="E69" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="4">
+      <c r="A70" s="5">
         <v>69</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="4" t="s">
         <v>127</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="E70" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="4">
+      <c r="A71" s="5">
         <v>70</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="4" t="s">
         <v>128</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="E71" s="4" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="4">
+      <c r="A72" s="5">
         <v>71</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="4" t="s">
         <v>129</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="E72" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="4">
+      <c r="A73" s="5">
         <v>72</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="4" t="s">
         <v>130</v>
       </c>
       <c r="D73" s="6">
         <v>1</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="E73" s="4" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="4">
+      <c r="A74" s="5">
         <v>73</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="4" t="s">
         <v>131</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E74" s="4" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="4">
+      <c r="A75" s="5">
         <v>74</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="4" t="s">
         <v>132</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E75" s="4" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="4">
+      <c r="A76" s="5">
         <v>75</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="4" t="s">
         <v>133</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="E76" s="4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="4">
+      <c r="A77" s="5">
         <v>76</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="4" t="s">
         <v>134</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="E77" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="4">
+      <c r="A78" s="5">
         <v>77</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="4" t="s">
         <v>135</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="E78" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="4">
+      <c r="A79" s="5">
         <v>78</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="4" t="s">
         <v>136</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="E79" s="4" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="4">
+      <c r="A80" s="5">
         <v>79</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="4" t="s">
         <v>107</v>
       </c>
       <c r="D80" s="6">
         <v>3</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="E80" s="4" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="4">
+      <c r="A81" s="5">
         <v>80</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="E81" s="4" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="4">
+      <c r="A82" s="5">
         <v>81</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="4" t="s">
         <v>109</v>
       </c>
       <c r="D82" s="6">
         <v>3</v>
       </c>
-      <c r="E82" s="3" t="s">
+      <c r="E82" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="4">
+      <c r="A83" s="5">
         <v>82</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="4" t="s">
         <v>143</v>
       </c>
       <c r="D83" s="6">
         <v>3</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="E83" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="4">
+      <c r="A84" s="5">
         <v>83</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="4" t="s">
         <v>110</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="E84" s="4" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="4">
+      <c r="A85" s="5">
         <v>84</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="4" t="s">
         <v>111</v>
       </c>
       <c r="D85" s="6">
         <v>3</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="E85" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="4">
+      <c r="A86" s="5">
         <v>85</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="4" t="s">
         <v>112</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="E86" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="4">
+      <c r="A87" s="5">
         <v>86</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D87" s="6">
         <v>3</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="E87" s="4" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="4">
+      <c r="A88" s="5">
         <v>87</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="4" t="s">
         <v>114</v>
       </c>
       <c r="D88" s="6">
         <v>3</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="E88" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="4">
+      <c r="A89" s="5">
         <v>88</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="4" t="s">
         <v>116</v>
       </c>
       <c r="D89" s="6">
         <v>3</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="E89" s="4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="4">
+      <c r="A90" s="5">
         <v>89</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="4" t="s">
         <v>115</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E90" s="3" t="s">
+      <c r="E90" s="4" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="4">
+      <c r="A91" s="5">
         <v>90</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" s="4" t="s">
         <v>117</v>
       </c>
       <c r="D91" s="6">
         <v>3</v>
       </c>
-      <c r="E91" s="3" t="s">
+      <c r="E91" s="4" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="4">
+      <c r="A92" s="5">
         <v>91</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="4" t="s">
         <v>118</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E92" s="3" t="s">
+      <c r="E92" s="4" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="4">
+      <c r="A93" s="5">
         <v>92</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" s="4" t="s">
         <v>119</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E93" s="3" t="s">
+      <c r="E93" s="4" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="4">
+      <c r="A94" s="5">
         <v>93</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="4" t="s">
         <v>120</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="E94" s="4" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="4">
+      <c r="A95" s="5">
         <v>94</v>
       </c>
-      <c r="B95" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C95" s="3" t="s">
+      <c r="B95" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>154</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="E95" s="4" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="4">
+      <c r="A96" s="5">
         <v>95</v>
       </c>
-      <c r="B96" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C96" s="3" t="s">
+      <c r="B96" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>173</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E96" s="3" t="s">
+      <c r="E96" s="4" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="4">
+      <c r="A97" s="5">
         <v>96</v>
       </c>
-      <c r="B97" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C97" s="3" t="s">
+      <c r="B97" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>207</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E97" s="3" t="s">
+      <c r="E97" s="4" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="4">
+      <c r="A98" s="5">
         <v>97</v>
       </c>
-      <c r="B98" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C98" s="3" t="s">
+      <c r="B98" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>156</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E98" s="3" t="s">
+      <c r="E98" s="4" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="4">
+      <c r="A99" s="5">
         <v>98</v>
       </c>
-      <c r="B99" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C99" s="3" t="s">
+      <c r="B99" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>205</v>
       </c>
       <c r="D99" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E99" s="3" t="s">
+      <c r="E99" s="4" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="4">
+      <c r="A100" s="5">
         <v>99</v>
       </c>
-      <c r="B100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C100" s="3" t="s">
+      <c r="B100" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>209</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E100" s="3" t="s">
+      <c r="E100" s="4" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="4">
+      <c r="A101" s="5">
         <v>100</v>
       </c>
-      <c r="B101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C101" s="3" t="s">
+      <c r="B101" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>213</v>
       </c>
       <c r="D101" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E101" s="3" t="s">
+      <c r="E101" s="4" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="4">
+      <c r="A102" s="5">
         <v>101</v>
       </c>
-      <c r="B102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C102" s="3" t="s">
+      <c r="B102" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" s="4" t="s">
         <v>215</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E102" s="3" t="s">
+      <c r="E102" s="4" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="4">
+      <c r="A103" s="5">
         <v>102</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C103" s="4" t="s">
         <v>217</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E103" s="3" t="s">
+      <c r="E103" s="4" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="4">
+      <c r="A104" s="5">
         <v>103</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C104" s="4" t="s">
         <v>219</v>
       </c>
       <c r="D104" s="6">
         <v>2</v>
       </c>
-      <c r="E104" s="3" t="s">
+      <c r="E104" s="4" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="4">
+      <c r="A105" s="5">
         <v>104</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C105" s="4" t="s">
         <v>220</v>
       </c>
       <c r="D105" s="6">
         <v>3</v>
       </c>
-      <c r="E105" s="3" t="s">
+      <c r="E105" s="4" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="4">
+      <c r="A106" s="5">
         <v>105</v>
       </c>
-      <c r="B106" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C106" s="3" t="s">
+      <c r="B106" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>222</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E106" s="3" t="s">
+      <c r="E106" s="4" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="4">
+      <c r="A107" s="5">
         <v>106</v>
       </c>
-      <c r="B107" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C107" s="3" t="s">
+      <c r="B107" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" s="4" t="s">
         <v>221</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E107" s="3" t="s">
+      <c r="E107" s="4" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="4">
+      <c r="A108" s="5">
         <v>107</v>
       </c>
-      <c r="B108" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C108" s="3" t="s">
+      <c r="B108" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108" s="4" t="s">
         <v>225</v>
       </c>
       <c r="D108" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E108" s="3" t="s">
+      <c r="E108" s="4" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="4">
+      <c r="A109" s="5">
         <v>108</v>
       </c>
-      <c r="B109" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C109" s="3" t="s">
+      <c r="B109" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109" s="4" t="s">
         <v>227</v>
       </c>
       <c r="D109" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E109" s="3" t="s">
+      <c r="E109" s="4" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="4">
+      <c r="A110" s="5">
         <v>109</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C110" s="4" t="s">
         <v>229</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E110" s="3" t="s">
+      <c r="E110" s="4" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="4">
+      <c r="A111" s="5">
         <v>110</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C111" s="4" t="s">
         <v>230</v>
       </c>
       <c r="D111" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E111" s="3" t="s">
+      <c r="E111" s="4" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="4">
+      <c r="A112" s="5">
         <v>111</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C112" s="4" t="s">
         <v>231</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E112" s="3" t="s">
+      <c r="E112" s="4" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="4">
+      <c r="A113" s="5">
         <v>112</v>
       </c>
-      <c r="B113" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C113" s="3" t="s">
+      <c r="B113" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113" s="4" t="s">
         <v>235</v>
       </c>
       <c r="D113" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E113" s="3" t="s">
+      <c r="E113" s="4" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="4">
+      <c r="A114" s="5">
         <v>113</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C114" s="4" t="s">
         <v>239</v>
       </c>
       <c r="D114" s="6">
         <v>1</v>
       </c>
-      <c r="E114" s="3" t="s">
+      <c r="E114" s="4" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="4">
+      <c r="A115" s="5">
         <v>114</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C115" s="4" t="s">
         <v>240</v>
       </c>
       <c r="D115" s="6">
         <v>2</v>
       </c>
-      <c r="E115" s="3" t="s">
+      <c r="E115" s="4" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="4">
+      <c r="A116" s="5">
         <v>115</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C116" s="4" t="s">
         <v>244</v>
       </c>
       <c r="D116" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E116" s="3" t="s">
+      <c r="E116" s="4" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="4">
+      <c r="A117" s="5">
         <v>116</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C117" s="4" t="s">
         <v>245</v>
       </c>
       <c r="D117" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E117" s="3" t="s">
+      <c r="E117" s="4" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="4">
+      <c r="A118" s="5">
         <v>117</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C118" s="4" t="s">
         <v>248</v>
       </c>
       <c r="D118" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="E118" s="3" t="s">
+      <c r="E118" s="4" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="4">
+      <c r="A119" s="5">
         <v>118</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C119" s="4" t="s">
         <v>250</v>
       </c>
       <c r="D119" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="E119" s="3" t="s">
+      <c r="E119" s="4" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="4">
+      <c r="A120" s="5">
         <v>119</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C120" s="4" t="s">
         <v>252</v>
       </c>
       <c r="D120" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="E120" s="3" t="s">
+      <c r="E120" s="4" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="4">
+      <c r="A121" s="5">
         <v>120</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C121" s="4" t="s">
         <v>254</v>
       </c>
       <c r="D121" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E121" s="3" t="s">
+      <c r="E121" s="4" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="4">
+      <c r="A122" s="5">
         <v>121</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C122" s="4" t="s">
         <v>256</v>
       </c>
       <c r="D122" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E122" s="3" t="s">
+      <c r="E122" s="4" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="4">
+      <c r="A123" s="5">
         <v>122</v>
       </c>
-      <c r="B123" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C123" s="3" t="s">
+      <c r="B123" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C123" s="4" t="s">
         <v>438</v>
       </c>
       <c r="D123" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E123" s="3" t="s">
+      <c r="E123" s="4" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="4">
+      <c r="A124" s="5">
         <v>123</v>
       </c>
-      <c r="B124" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C124" s="3" t="s">
+      <c r="B124" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C124" s="4" t="s">
         <v>440</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E124" s="3" t="s">
+      <c r="E124" s="4" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="4">
+      <c r="A125" s="5">
         <v>124</v>
       </c>
-      <c r="B125" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C125" s="3" t="s">
+      <c r="B125" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C125" s="4" t="s">
         <v>271</v>
       </c>
       <c r="D125" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E125" s="3" t="s">
+      <c r="E125" s="4" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="4">
+      <c r="A126" s="5">
         <v>125</v>
       </c>
-      <c r="B126" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C126" s="3" t="s">
+      <c r="B126" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C126" s="4" t="s">
         <v>272</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="E126" s="3" t="s">
+      <c r="E126" s="4" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="4">
+      <c r="A127" s="5">
         <v>126</v>
       </c>
-      <c r="B127" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C127" s="3" t="s">
+      <c r="B127" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C127" s="4" t="s">
         <v>273</v>
       </c>
       <c r="D127" s="6">
         <v>8</v>
       </c>
-      <c r="E127" s="3" t="s">
+      <c r="E127" s="4" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="4">
+      <c r="A128" s="5">
         <v>127</v>
       </c>
-      <c r="B128" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C128" s="3" t="s">
+      <c r="B128" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C128" s="4" t="s">
         <v>274</v>
       </c>
       <c r="D128" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E128" s="3" t="s">
+      <c r="E128" s="4" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="4">
+      <c r="A129" s="5">
         <v>128</v>
       </c>
-      <c r="B129" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C129" s="3" t="s">
+      <c r="B129" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C129" s="4" t="s">
         <v>275</v>
       </c>
       <c r="D129" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E129" s="3" t="s">
+      <c r="E129" s="4" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="4">
+      <c r="A130" s="5">
         <v>129</v>
       </c>
-      <c r="B130" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C130" s="3" t="s">
+      <c r="B130" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C130" s="4" t="s">
         <v>276</v>
       </c>
       <c r="D130" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E130" s="3" t="s">
+      <c r="E130" s="4" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="4">
+      <c r="A131" s="5">
         <v>130</v>
       </c>
-      <c r="B131" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C131" s="3" t="s">
+      <c r="B131" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C131" s="4" t="s">
         <v>277</v>
       </c>
       <c r="D131" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E131" s="3" t="s">
+      <c r="E131" s="4" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="4">
+      <c r="A132" s="5">
         <v>131</v>
       </c>
-      <c r="B132" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C132" s="3" t="s">
+      <c r="B132" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C132" s="4" t="s">
         <v>285</v>
       </c>
       <c r="D132" s="6">
         <v>1</v>
       </c>
-      <c r="E132" s="3" t="s">
+      <c r="E132" s="4" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="4">
+      <c r="A133" s="5">
         <v>132</v>
       </c>
-      <c r="B133" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C133" s="3" t="s">
+      <c r="B133" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C133" s="4" t="s">
         <v>286</v>
       </c>
       <c r="D133" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E133" s="3" t="s">
+      <c r="E133" s="4" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="4">
+      <c r="A134" s="5">
         <v>133</v>
       </c>
-      <c r="B134" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C134" s="3" t="s">
+      <c r="B134" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C134" s="4" t="s">
         <v>287</v>
       </c>
       <c r="D134" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="E134" s="3" t="s">
+      <c r="E134" s="4" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="4">
+      <c r="A135" s="5">
         <v>134</v>
       </c>
-      <c r="B135" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C135" s="3" t="s">
+      <c r="B135" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135" s="4" t="s">
         <v>288</v>
       </c>
       <c r="D135" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E135" s="3" t="s">
+      <c r="E135" s="4" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="4">
+      <c r="A136" s="5">
         <v>135</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B136" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="C136" s="4" t="s">
         <v>289</v>
       </c>
       <c r="D136" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E136" s="3" t="s">
+      <c r="E136" s="4" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="4">
+      <c r="A137" s="5">
         <v>136</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="B137" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="C137" s="4" t="s">
         <v>290</v>
       </c>
       <c r="D137" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E137" s="3" t="s">
+      <c r="E137" s="4" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="4">
+      <c r="A138" s="5">
         <v>137</v>
       </c>
-      <c r="B138" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C138" s="3" t="s">
+      <c r="B138" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C138" s="4" t="s">
         <v>291</v>
       </c>
       <c r="D138" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E138" s="3" t="s">
+      <c r="E138" s="4" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="4">
+      <c r="A139" s="5">
         <v>138</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B139" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="C139" s="4" t="s">
         <v>292</v>
       </c>
       <c r="D139" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E139" s="3" t="s">
+      <c r="E139" s="4" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="4">
+      <c r="A140" s="5">
         <v>139</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B140" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="C140" s="4" t="s">
         <v>293</v>
       </c>
       <c r="D140" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E140" s="3" t="s">
+      <c r="E140" s="4" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="4">
+      <c r="A141" s="5">
         <v>140</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B141" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="C141" s="4" t="s">
         <v>294</v>
       </c>
       <c r="D141" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E141" s="3" t="s">
+      <c r="E141" s="4" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="4">
+      <c r="A142" s="5">
         <v>141</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B142" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C142" s="3" t="s">
+      <c r="C142" s="4" t="s">
         <v>295</v>
       </c>
       <c r="D142" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E142" s="3" t="s">
+      <c r="E142" s="4" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="4">
+      <c r="A143" s="5">
         <v>142</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="B143" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C143" s="3" t="s">
+      <c r="C143" s="4" t="s">
         <v>296</v>
       </c>
       <c r="D143" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E143" s="3" t="s">
+      <c r="E143" s="4" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="4">
+      <c r="A144" s="5">
         <v>143</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B144" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="C144" s="4" t="s">
         <v>297</v>
       </c>
       <c r="D144" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E144" s="3" t="s">
+      <c r="E144" s="4" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="4">
+      <c r="A145" s="5">
         <v>144</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="B145" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C145" s="3" t="s">
+      <c r="C145" s="4" t="s">
         <v>298</v>
       </c>
       <c r="D145" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E145" s="3" t="s">
+      <c r="E145" s="4" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="4">
+      <c r="A146" s="5">
         <v>145</v>
       </c>
-      <c r="B146" s="3" t="s">
+      <c r="B146" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C146" s="3" t="s">
+      <c r="C146" s="4" t="s">
         <v>299</v>
       </c>
       <c r="D146" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E146" s="3" t="s">
+      <c r="E146" s="4" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="4">
+      <c r="A147" s="5">
         <v>146</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="B147" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="C147" s="4" t="s">
         <v>300</v>
       </c>
       <c r="D147" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E147" s="3" t="s">
+      <c r="E147" s="4" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="4">
+      <c r="A148" s="5">
         <v>147</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="B148" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="C148" s="4" t="s">
         <v>301</v>
       </c>
       <c r="D148" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E148" s="3" t="s">
+      <c r="E148" s="4" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="4">
+      <c r="A149" s="5">
         <v>148</v>
       </c>
-      <c r="B149" s="3" t="s">
+      <c r="B149" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C149" s="3" t="s">
+      <c r="C149" s="4" t="s">
         <v>302</v>
       </c>
       <c r="D149" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E149" s="3" t="s">
+      <c r="E149" s="4" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="4">
+      <c r="A150" s="5">
         <v>149</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="B150" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C150" s="3" t="s">
+      <c r="C150" s="4" t="s">
         <v>303</v>
       </c>
       <c r="D150" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E150" s="3" t="s">
+      <c r="E150" s="4" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="4">
+      <c r="A151" s="5">
         <v>150</v>
       </c>
-      <c r="B151" s="3" t="s">
+      <c r="B151" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C151" s="3" t="s">
+      <c r="C151" s="4" t="s">
         <v>304</v>
       </c>
       <c r="D151" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E151" s="3" t="s">
+      <c r="E151" s="4" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="4">
+      <c r="A152" s="5">
         <v>151</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B152" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C152" s="3" t="s">
+      <c r="C152" s="4" t="s">
         <v>305</v>
       </c>
       <c r="D152" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E152" s="3" t="s">
+      <c r="E152" s="4" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="4">
+      <c r="A153" s="5">
         <v>152</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="B153" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="C153" s="4" t="s">
         <v>306</v>
       </c>
       <c r="D153" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E153" s="3" t="s">
+      <c r="E153" s="4" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="4">
+      <c r="A154" s="5">
         <v>153</v>
       </c>
-      <c r="B154" s="3" t="s">
+      <c r="B154" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C154" s="3" t="s">
+      <c r="C154" s="4" t="s">
         <v>307</v>
       </c>
       <c r="D154" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E154" s="3" t="s">
+      <c r="E154" s="4" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="4">
+      <c r="A155" s="5">
         <v>154</v>
       </c>
-      <c r="B155" s="3" t="s">
+      <c r="B155" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C155" s="3" t="s">
+      <c r="C155" s="4" t="s">
         <v>308</v>
       </c>
       <c r="D155" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E155" s="3" t="s">
+      <c r="E155" s="4" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="4">
+      <c r="A156" s="5">
         <v>155</v>
       </c>
-      <c r="B156" s="3" t="s">
+      <c r="B156" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C156" s="3" t="s">
+      <c r="C156" s="4" t="s">
         <v>309</v>
       </c>
       <c r="D156" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="E156" s="3" t="s">
+      <c r="E156" s="4" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="4">
+      <c r="A157" s="5">
         <v>156</v>
       </c>
-      <c r="B157" s="3" t="s">
+      <c r="B157" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C157" s="3" t="s">
+      <c r="C157" s="4" t="s">
         <v>310</v>
       </c>
       <c r="D157" s="6">
         <v>8</v>
       </c>
-      <c r="E157" s="3" t="s">
+      <c r="E157" s="4" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="4">
+      <c r="A158" s="5">
         <v>157</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="B158" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C158" s="3" t="s">
+      <c r="C158" s="4" t="s">
         <v>311</v>
       </c>
       <c r="D158" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E158" s="3" t="s">
+      <c r="E158" s="4" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="4">
+      <c r="A159" s="5">
         <v>158</v>
       </c>
-      <c r="B159" s="3" t="s">
+      <c r="B159" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C159" s="3" t="s">
+      <c r="C159" s="4" t="s">
         <v>312</v>
       </c>
       <c r="D159" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E159" s="3" t="s">
+      <c r="E159" s="4" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="4">
+      <c r="A160" s="5">
         <v>159</v>
       </c>
-      <c r="B160" s="3" t="s">
+      <c r="B160" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C160" s="3" t="s">
+      <c r="C160" s="4" t="s">
         <v>313</v>
       </c>
       <c r="D160" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E160" s="3" t="s">
+      <c r="E160" s="4" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="4">
+      <c r="A161" s="5">
         <v>160</v>
       </c>
-      <c r="B161" s="3" t="s">
+      <c r="B161" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C161" s="3" t="s">
+      <c r="C161" s="4" t="s">
         <v>314</v>
       </c>
       <c r="D161" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="E161" s="3" t="s">
+      <c r="E161" s="4" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="4">
+      <c r="A162" s="5">
         <v>161</v>
       </c>
-      <c r="B162" s="3" t="s">
+      <c r="B162" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C162" s="3" t="s">
+      <c r="C162" s="4" t="s">
         <v>315</v>
       </c>
       <c r="D162" s="6">
         <v>1</v>
       </c>
-      <c r="E162" s="3" t="s">
+      <c r="E162" s="4" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="4">
+      <c r="A163" s="5">
         <v>162</v>
       </c>
-      <c r="B163" s="3" t="s">
+      <c r="B163" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C163" s="3" t="s">
+      <c r="C163" s="4" t="s">
         <v>316</v>
       </c>
       <c r="D163" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E163" s="3" t="s">
+      <c r="E163" s="4" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="4">
+      <c r="A164" s="5">
         <v>163</v>
       </c>
-      <c r="B164" s="3" t="s">
+      <c r="B164" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C164" s="3" t="s">
+      <c r="C164" s="4" t="s">
         <v>317</v>
       </c>
       <c r="D164" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="E164" s="3" t="s">
+      <c r="E164" s="4" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="4">
+      <c r="A165" s="5">
         <v>164</v>
       </c>
-      <c r="B165" s="3" t="s">
+      <c r="B165" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C165" s="3" t="s">
+      <c r="C165" s="4" t="s">
         <v>318</v>
       </c>
       <c r="D165" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="E165" s="3" t="s">
+      <c r="E165" s="4" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="4">
+      <c r="A166" s="5">
         <v>165</v>
       </c>
-      <c r="B166" s="3" t="s">
+      <c r="B166" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C166" s="3" t="s">
+      <c r="C166" s="4" t="s">
         <v>319</v>
       </c>
       <c r="D166" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="E166" s="3" t="s">
+      <c r="E166" s="4" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="4">
+      <c r="A167" s="5">
         <v>166</v>
       </c>
-      <c r="B167" s="3" t="s">
+      <c r="B167" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C167" s="3" t="s">
+      <c r="C167" s="4" t="s">
         <v>320</v>
       </c>
       <c r="D167" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="E167" s="3" t="s">
+      <c r="E167" s="4" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="4">
+      <c r="A168" s="5">
         <v>167</v>
       </c>
-      <c r="B168" s="3" t="s">
+      <c r="B168" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C168" s="3" t="s">
+      <c r="C168" s="4" t="s">
         <v>321</v>
       </c>
       <c r="D168" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E168" s="3" t="s">
+      <c r="E168" s="4" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="4">
+      <c r="A169" s="5">
         <v>168</v>
       </c>
-      <c r="B169" s="3" t="s">
+      <c r="B169" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C169" s="3" t="s">
+      <c r="C169" s="4" t="s">
         <v>322</v>
       </c>
       <c r="D169" s="6">
         <v>3</v>
       </c>
-      <c r="E169" s="3" t="s">
+      <c r="E169" s="4" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="4">
+      <c r="A170" s="5">
         <v>169</v>
       </c>
-      <c r="B170" s="3" t="s">
+      <c r="B170" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C170" s="3" t="s">
+      <c r="C170" s="4" t="s">
         <v>323</v>
       </c>
       <c r="D170" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E170" s="3" t="s">
+      <c r="E170" s="4" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="4">
+      <c r="A171" s="5">
         <v>170</v>
       </c>
-      <c r="B171" s="3" t="s">
+      <c r="B171" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C171" s="3" t="s">
+      <c r="C171" s="4" t="s">
         <v>324</v>
       </c>
       <c r="D171" s="6">
         <v>3</v>
       </c>
-      <c r="E171" s="3" t="s">
+      <c r="E171" s="4" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="4">
+      <c r="A172" s="5">
         <v>171</v>
       </c>
-      <c r="B172" s="3" t="s">
+      <c r="B172" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C172" s="3" t="s">
+      <c r="C172" s="4" t="s">
         <v>325</v>
       </c>
       <c r="D172" s="6">
         <v>3</v>
       </c>
-      <c r="E172" s="3" t="s">
+      <c r="E172" s="4" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="4">
+      <c r="A173" s="5">
         <v>172</v>
       </c>
-      <c r="B173" s="3" t="s">
+      <c r="B173" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C173" s="3" t="s">
+      <c r="C173" s="4" t="s">
         <v>326</v>
       </c>
       <c r="D173" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E173" s="3" t="s">
+      <c r="E173" s="4" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="4">
+      <c r="A174" s="5">
         <v>173</v>
       </c>
-      <c r="B174" s="3" t="s">
+      <c r="B174" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C174" s="3" t="s">
+      <c r="C174" s="4" t="s">
         <v>327</v>
       </c>
       <c r="D174" s="6">
         <v>3</v>
       </c>
-      <c r="E174" s="3" t="s">
+      <c r="E174" s="4" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="4">
+      <c r="A175" s="5">
         <v>174</v>
       </c>
-      <c r="B175" s="3" t="s">
+      <c r="B175" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C175" s="3" t="s">
+      <c r="C175" s="4" t="s">
         <v>328</v>
       </c>
       <c r="D175" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E175" s="3" t="s">
+      <c r="E175" s="4" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="4">
+      <c r="A176" s="5">
         <v>175</v>
       </c>
-      <c r="B176" s="3" t="s">
+      <c r="B176" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C176" s="3" t="s">
+      <c r="C176" s="4" t="s">
         <v>329</v>
       </c>
       <c r="D176" s="6">
         <v>3</v>
       </c>
-      <c r="E176" s="3" t="s">
+      <c r="E176" s="4" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="4">
+      <c r="A177" s="5">
         <v>176</v>
       </c>
-      <c r="B177" s="3" t="s">
+      <c r="B177" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C177" s="3" t="s">
+      <c r="C177" s="4" t="s">
         <v>330</v>
       </c>
       <c r="D177" s="6">
         <v>3</v>
       </c>
-      <c r="E177" s="3" t="s">
+      <c r="E177" s="4" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="4">
+      <c r="A178" s="5">
         <v>177</v>
       </c>
-      <c r="B178" s="3" t="s">
+      <c r="B178" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C178" s="3" t="s">
+      <c r="C178" s="4" t="s">
         <v>331</v>
       </c>
       <c r="D178" s="6">
         <v>3</v>
       </c>
-      <c r="E178" s="3" t="s">
+      <c r="E178" s="4" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="4">
+      <c r="A179" s="5">
         <v>178</v>
       </c>
-      <c r="B179" s="3" t="s">
+      <c r="B179" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C179" s="3" t="s">
+      <c r="C179" s="4" t="s">
         <v>332</v>
       </c>
       <c r="D179" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E179" s="3" t="s">
+      <c r="E179" s="4" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="4">
+      <c r="A180" s="5">
         <v>179</v>
       </c>
-      <c r="B180" s="3" t="s">
+      <c r="B180" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C180" s="3" t="s">
+      <c r="C180" s="4" t="s">
         <v>333</v>
       </c>
       <c r="D180" s="6">
         <v>3</v>
       </c>
-      <c r="E180" s="3" t="s">
+      <c r="E180" s="4" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="4">
+      <c r="A181" s="5">
         <v>180</v>
       </c>
-      <c r="B181" s="3" t="s">
+      <c r="B181" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C181" s="3" t="s">
+      <c r="C181" s="4" t="s">
         <v>334</v>
       </c>
       <c r="D181" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E181" s="3" t="s">
+      <c r="E181" s="4" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="4">
+      <c r="A182" s="5">
         <v>181</v>
       </c>
-      <c r="B182" s="3" t="s">
+      <c r="B182" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C182" s="3" t="s">
+      <c r="C182" s="4" t="s">
         <v>335</v>
       </c>
       <c r="D182" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E182" s="3" t="s">
+      <c r="E182" s="4" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="4">
+      <c r="A183" s="5">
         <v>182</v>
       </c>
-      <c r="B183" s="3" t="s">
+      <c r="B183" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C183" s="3" t="s">
+      <c r="C183" s="4" t="s">
         <v>336</v>
       </c>
       <c r="D183" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E183" s="3" t="s">
+      <c r="E183" s="4" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="4">
+      <c r="A184" s="5">
         <v>183</v>
       </c>
-      <c r="B184" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C184" s="3" t="s">
+      <c r="B184" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C184" s="4" t="s">
         <v>337</v>
       </c>
       <c r="D184" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E184" s="3" t="s">
+      <c r="E184" s="4" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="4">
+      <c r="A185" s="5">
         <v>184</v>
       </c>
-      <c r="B185" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C185" s="3" t="s">
+      <c r="B185" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C185" s="4" t="s">
         <v>338</v>
       </c>
       <c r="D185" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E185" s="3" t="s">
+      <c r="E185" s="4" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="4">
+      <c r="A186" s="5">
         <v>185</v>
       </c>
-      <c r="B186" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C186" s="3" t="s">
+      <c r="B186" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C186" s="4" t="s">
         <v>339</v>
       </c>
       <c r="D186" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E186" s="3" t="s">
+      <c r="E186" s="4" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="4">
+      <c r="A187" s="5">
         <v>186</v>
       </c>
-      <c r="B187" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C187" s="3" t="s">
+      <c r="B187" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C187" s="4" t="s">
         <v>340</v>
       </c>
       <c r="D187" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E187" s="3" t="s">
+      <c r="E187" s="4" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="4">
+      <c r="A188" s="5">
         <v>187</v>
       </c>
-      <c r="B188" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C188" s="3" t="s">
+      <c r="B188" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C188" s="4" t="s">
         <v>341</v>
       </c>
       <c r="D188" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E188" s="3" t="s">
+      <c r="E188" s="4" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="4">
+      <c r="A189" s="5">
         <v>188</v>
       </c>
-      <c r="B189" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C189" s="3" t="s">
+      <c r="B189" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C189" s="4" t="s">
         <v>342</v>
       </c>
       <c r="D189" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E189" s="3" t="s">
+      <c r="E189" s="4" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="4">
+      <c r="A190" s="5">
         <v>189</v>
       </c>
-      <c r="B190" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C190" s="3" t="s">
+      <c r="B190" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C190" s="4" t="s">
         <v>343</v>
       </c>
       <c r="D190" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E190" s="3" t="s">
+      <c r="E190" s="4" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="4">
+      <c r="A191" s="5">
         <v>190</v>
       </c>
-      <c r="B191" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C191" s="3" t="s">
+      <c r="B191" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C191" s="4" t="s">
         <v>344</v>
       </c>
       <c r="D191" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="E191" s="3" t="s">
+      <c r="E191" s="4" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="4">
+      <c r="A192" s="5">
         <v>191</v>
       </c>
-      <c r="B192" s="3" t="s">
+      <c r="B192" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C192" s="3" t="s">
+      <c r="C192" s="4" t="s">
         <v>345</v>
       </c>
       <c r="D192" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E192" s="3" t="s">
+      <c r="E192" s="4" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" s="4">
+      <c r="A193" s="5">
         <v>192</v>
       </c>
-      <c r="B193" s="3" t="s">
+      <c r="B193" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C193" s="3" t="s">
+      <c r="C193" s="4" t="s">
         <v>346</v>
       </c>
       <c r="D193" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="E193" s="3" t="s">
+      <c r="E193" s="4" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" s="4">
+      <c r="A194" s="5">
         <v>193</v>
       </c>
-      <c r="B194" s="3" t="s">
+      <c r="B194" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C194" s="3" t="s">
+      <c r="C194" s="4" t="s">
         <v>347</v>
       </c>
       <c r="D194" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="E194" s="3" t="s">
+      <c r="E194" s="4" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" s="4">
+      <c r="A195" s="5">
         <v>194</v>
       </c>
-      <c r="B195" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C195" s="3" t="s">
+      <c r="B195" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C195" s="4" t="s">
         <v>348</v>
       </c>
       <c r="D195" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E195" s="3" t="s">
+      <c r="E195" s="4" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" s="4">
+      <c r="A196" s="5">
         <v>195</v>
       </c>
-      <c r="B196" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C196" s="3" t="s">
+      <c r="B196" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" s="4" t="s">
         <v>349</v>
       </c>
       <c r="D196" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E196" s="3" t="s">
+      <c r="E196" s="4" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" s="4">
+      <c r="A197" s="5">
         <v>196</v>
       </c>
-      <c r="B197" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C197" s="3" t="s">
+      <c r="B197" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C197" s="4" t="s">
         <v>350</v>
       </c>
       <c r="D197" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E197" s="3" t="s">
+      <c r="E197" s="4" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" s="4">
+      <c r="A198" s="5">
         <v>197</v>
       </c>
-      <c r="B198" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C198" s="3" t="s">
+      <c r="B198" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198" s="4" t="s">
         <v>351</v>
       </c>
       <c r="D198" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E198" s="3" t="s">
+      <c r="E198" s="4" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" s="4">
+      <c r="A199" s="5">
         <v>198</v>
       </c>
-      <c r="B199" s="3" t="s">
+      <c r="B199" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C199" s="3" t="s">
+      <c r="C199" s="4" t="s">
         <v>352</v>
       </c>
       <c r="D199" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E199" s="3" t="s">
+      <c r="E199" s="4" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="4">
+      <c r="A200" s="5">
         <v>199</v>
       </c>
-      <c r="B200" s="3" t="s">
+      <c r="B200" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C200" s="3" t="s">
+      <c r="C200" s="4" t="s">
         <v>353</v>
       </c>
       <c r="D200" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E200" s="3" t="s">
+      <c r="E200" s="4" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="4">
+      <c r="A201" s="5">
         <v>200</v>
       </c>
-      <c r="B201" s="3" t="s">
+      <c r="B201" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C201" s="3" t="s">
+      <c r="C201" s="4" t="s">
         <v>354</v>
       </c>
       <c r="D201" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E201" s="3" t="s">
+      <c r="E201" s="4" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" s="4">
+      <c r="A202" s="5">
         <v>201</v>
       </c>
-      <c r="B202" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C202" s="3" t="s">
+      <c r="B202" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C202" s="4" t="s">
         <v>355</v>
       </c>
       <c r="D202" s="6">
         <v>1</v>
       </c>
-      <c r="E202" s="3" t="s">
+      <c r="E202" s="4" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" s="4">
+      <c r="A203" s="5">
         <v>202</v>
       </c>
-      <c r="B203" s="3" t="s">
+      <c r="B203" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C203" s="3" t="s">
+      <c r="C203" s="4" t="s">
         <v>356</v>
       </c>
       <c r="D203" s="6">
         <v>1</v>
       </c>
-      <c r="E203" s="3" t="s">
+      <c r="E203" s="4" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" s="4">
+      <c r="A204" s="5">
         <v>203</v>
       </c>
-      <c r="B204" s="3" t="s">
+      <c r="B204" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C204" s="3" t="s">
+      <c r="C204" s="4" t="s">
         <v>357</v>
       </c>
       <c r="D204" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="E204" s="3" t="s">
+      <c r="E204" s="4" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" s="4">
+      <c r="A205" s="5">
         <v>204</v>
       </c>
-      <c r="B205" s="3" t="s">
+      <c r="B205" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C205" s="3" t="s">
+      <c r="C205" s="4" t="s">
         <v>358</v>
       </c>
       <c r="D205" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E205" s="3" t="s">
+      <c r="E205" s="4" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" s="4">
+      <c r="A206" s="5">
         <v>205</v>
       </c>
-      <c r="B206" s="3" t="s">
+      <c r="B206" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C206" s="3" t="s">
+      <c r="C206" s="4" t="s">
         <v>359</v>
       </c>
       <c r="D206" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E206" s="3" t="s">
+      <c r="E206" s="4" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" s="4">
+      <c r="A207" s="5">
         <v>206</v>
       </c>
-      <c r="B207" s="3" t="s">
+      <c r="B207" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C207" s="3" t="s">
+      <c r="C207" s="4" t="s">
         <v>360</v>
       </c>
       <c r="D207" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="E207" s="3" t="s">
+      <c r="E207" s="4" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" s="4">
+      <c r="A208" s="5">
         <v>207</v>
       </c>
-      <c r="B208" s="3" t="s">
+      <c r="B208" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C208" s="3" t="s">
+      <c r="C208" s="4" t="s">
         <v>361</v>
       </c>
       <c r="D208" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="E208" s="3" t="s">
+      <c r="E208" s="4" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" s="4">
+      <c r="A209" s="5">
         <v>208</v>
       </c>
-      <c r="B209" s="3" t="s">
+      <c r="B209" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C209" s="3" t="s">
+      <c r="C209" s="4" t="s">
         <v>362</v>
       </c>
       <c r="D209" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="E209" s="3" t="s">
+      <c r="E209" s="4" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" s="4">
+      <c r="A210" s="5">
         <v>209</v>
       </c>
-      <c r="B210" s="3" t="s">
+      <c r="B210" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C210" s="3" t="s">
+      <c r="C210" s="4" t="s">
         <v>363</v>
       </c>
       <c r="D210" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E210" s="3" t="s">
+      <c r="E210" s="4" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" s="4">
+      <c r="A211" s="5">
         <v>210</v>
       </c>
-      <c r="B211" s="3" t="s">
+      <c r="B211" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C211" s="3" t="s">
+      <c r="C211" s="4" t="s">
         <v>364</v>
       </c>
       <c r="D211" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E211" s="3" t="s">
+      <c r="E211" s="4" t="s">
         <v>437</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="5">
+        <v>211</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="D212" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E212" s="4" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="5">
+        <v>212</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D213" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E213" s="4" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" s="5">
+        <v>213</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="D214" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E214" s="4" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" s="5">
+        <v>214</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="D215" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E215" s="4" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" s="5">
+        <v>215</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="D216" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E216" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" s="5">
+        <v>216</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="D217" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E217" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" s="5">
+        <v>217</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D218" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E218" s="4" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" s="5">
+        <v>218</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="D219" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E219" s="4" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="5">
+        <v>219</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="D220" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E220" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="5">
+        <v>220</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="D221" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E221" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="5">
+        <v>221</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="D222" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E222" s="4" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" s="5">
+        <v>222</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="D223" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E223" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" s="5">
+        <v>223</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="D224" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E224" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" s="5">
+        <v>224</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="D225" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E225" s="4" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" s="5">
+        <v>225</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="D226" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E226" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" s="5">
+        <v>226</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="D227" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E227" s="4" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" s="5">
+        <v>227</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="D228" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="E228" s="4" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" s="5">
+        <v>228</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="D229" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E229" s="4" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" s="5">
+        <v>229</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="D230" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E230" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" s="5">
+        <v>230</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="D231" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E231" s="4" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" s="5">
+        <v>231</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="D232" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="E232" s="4" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" s="5">
+        <v>232</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="D233" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E233" s="4" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" s="5">
+        <v>233</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="D234" s="8">
+        <v>3</v>
+      </c>
+      <c r="E234" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" s="5">
+        <v>234</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="D235" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E235" s="4" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" s="5">
+        <v>235</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="D236" s="8">
+        <v>3</v>
+      </c>
+      <c r="E236" s="4" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" s="5">
+        <v>236</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="D237" s="8">
+        <v>3</v>
+      </c>
+      <c r="E237" s="4" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" s="5">
+        <v>237</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="D238" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="E238" s="4" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" s="5">
+        <v>238</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="D239" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E239" s="4" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" s="5">
+        <v>239</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="D240" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E240" s="4" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" s="5">
+        <v>240</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="D241" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E241" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" s="5">
+        <v>241</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="D242" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E242" s="4" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" s="5">
+        <v>242</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="D243" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E243" s="4" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" s="5">
+        <v>243</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D244" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E244" s="4" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" s="5">
+        <v>244</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="D245" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E245" s="4" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" s="5">
+        <v>245</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="D246" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E246" s="4" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" s="5">
+        <v>246</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="D247" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E247" s="4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" s="5">
+        <v>247</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="D248" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E248" s="4" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" s="5">
+        <v>248</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="D249" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E249" s="4" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" s="5">
+        <v>249</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="D250" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E250" s="4" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" s="5">
+        <v>250</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="D251" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E251" s="4" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" s="5">
+        <v>251</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="D252" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E252" s="4" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" s="5">
+        <v>252</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="D253" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="E253" s="4" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" s="5">
+        <v>253</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="D254" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E254" s="4" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" s="5">
+        <v>254</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="D255" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E255" s="4" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" s="5">
+        <v>255</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="D256" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E256" s="4" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" s="5">
+        <v>256</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="D257" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E257" s="4" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" s="5">
+        <v>257</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C258" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="D258" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E258" s="4" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" s="5">
+        <v>258</v>
+      </c>
+      <c r="B259" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C259" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="D259" s="8">
+        <v>3</v>
+      </c>
+      <c r="E259" s="4" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" s="5">
+        <v>259</v>
+      </c>
+      <c r="B260" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C260" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="D260" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E260" s="4" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261" s="5">
+        <v>260</v>
+      </c>
+      <c r="B261" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C261" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="D261" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E261" s="4" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" s="5">
+        <v>261</v>
+      </c>
+      <c r="B262" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C262" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="D262" s="8">
+        <v>3</v>
+      </c>
+      <c r="E262" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" s="5">
+        <v>262</v>
+      </c>
+      <c r="B263" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C263" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="D263" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E263" s="4" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264" s="5">
+        <v>263</v>
+      </c>
+      <c r="B264" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C264" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="D264" s="8">
+        <v>3</v>
+      </c>
+      <c r="E264" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" s="5">
+        <v>264</v>
+      </c>
+      <c r="B265" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C265" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="D265" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E265" s="4" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" s="5">
+        <v>265</v>
+      </c>
+      <c r="B266" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C266" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="D266" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E266" s="4" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" s="5">
+        <v>266</v>
+      </c>
+      <c r="B267" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C267" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="D267" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E267" s="4" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" s="5">
+        <v>267</v>
+      </c>
+      <c r="B268" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C268" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="D268" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E268" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269" s="5">
+        <v>268</v>
+      </c>
+      <c r="B269" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C269" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="D269" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E269" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270" s="5">
+        <v>269</v>
+      </c>
+      <c r="B270" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C270" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="D270" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E270" s="4" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" s="5">
+        <v>270</v>
+      </c>
+      <c r="B271" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C271" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="D271" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E271" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272" s="5">
+        <v>271</v>
+      </c>
+      <c r="B272" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C272" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="D272" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E272" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" s="5">
+        <v>272</v>
+      </c>
+      <c r="B273" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C273" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="D273" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E273" s="4" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274" s="5">
+        <v>273</v>
+      </c>
+      <c r="B274" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C274" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="D274" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E274" s="4" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" s="5">
+        <v>274</v>
+      </c>
+      <c r="B275" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C275" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="D275" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E275" s="4" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" s="5">
+        <v>275</v>
+      </c>
+      <c r="B276" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C276" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="D276" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="E276" s="4" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" s="5">
+        <v>276</v>
+      </c>
+      <c r="B277" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C277" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="D277" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E277" s="4" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" s="5">
+        <v>277</v>
+      </c>
+      <c r="B278" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C278" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="D278" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E278" s="4" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" s="5">
+        <v>278</v>
+      </c>
+      <c r="B279" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C279" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="D279" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E279" s="4" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280" s="5">
+        <v>279</v>
+      </c>
+      <c r="B280" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C280" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="D280" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="E280" s="4" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" s="5">
+        <v>280</v>
+      </c>
+      <c r="B281" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C281" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="D281" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E281" s="4" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282" s="5">
+        <v>281</v>
+      </c>
+      <c r="B282" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C282" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="D282" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="E282" s="4" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283" s="5">
+        <v>282</v>
+      </c>
+      <c r="B283" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C283" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D283" s="8">
+        <v>3</v>
+      </c>
+      <c r="E283" s="4" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" s="5">
+        <v>283</v>
+      </c>
+      <c r="B284" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C284" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="D284" s="8">
+        <v>3</v>
+      </c>
+      <c r="E284" s="4" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" s="5">
+        <v>284</v>
+      </c>
+      <c r="B285" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C285" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="D285" s="8">
+        <v>3</v>
+      </c>
+      <c r="E285" s="4" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" s="5">
+        <v>285</v>
+      </c>
+      <c r="B286" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C286" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="D286" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E286" s="4" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" s="5">
+        <v>286</v>
+      </c>
+      <c r="B287" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C287" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="D287" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E287" s="4" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288" s="5">
+        <v>287</v>
+      </c>
+      <c r="B288" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C288" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="D288" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E288" s="4" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289" s="5">
+        <v>288</v>
+      </c>
+      <c r="B289" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C289" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="D289" s="8">
+        <v>3</v>
+      </c>
+      <c r="E289" s="4" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290" s="5">
+        <v>289</v>
+      </c>
+      <c r="B290" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C290" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="D290" s="8">
+        <v>3</v>
+      </c>
+      <c r="E290" s="4" t="s">
+        <v>599</v>
       </c>
     </row>
   </sheetData>
